--- a/SpeedsLocationsXY.xlsx
+++ b/SpeedsLocationsXY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron\Desktop\Studies\Semester 6\EE_Lab1\EE_LAB1_PROJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F9388F3-8A05-4E51-8325-2E30E79EF9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2399E3E3-3929-492C-AE2C-94FEB14E9E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{708F06E8-502F-46D8-8E6D-FA5AB6E3F58A}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="D1:T162"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H3:H66" si="6">ROUND(32*J4,0)</f>
+        <f t="shared" ref="H4:H66" si="6">ROUND(32*J4,0)</f>
         <v>31</v>
       </c>
       <c r="J4">
@@ -4717,7 +4717,7 @@
         <v>-8</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G162" si="16">ROUND(32*K132,0)</f>
+        <f t="shared" ref="G131:G161" si="16">ROUND(32*K132,0)</f>
         <v>21</v>
       </c>
       <c r="H131">

--- a/SpeedsLocationsXY.xlsx
+++ b/SpeedsLocationsXY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron\Desktop\Studies\Semester 6\EE_Lab1\EE_LAB1_PROJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2399E3E3-3929-492C-AE2C-94FEB14E9E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846A4BBC-FECE-45CE-A9C7-49AFB2051B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{708F06E8-502F-46D8-8E6D-FA5AB6E3F58A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{708F06E8-502F-46D8-8E6D-FA5AB6E3F58A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>78 points</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Angles</t>
   </si>
@@ -61,6 +58,30 @@
   </si>
   <si>
     <t>V Y</t>
+  </si>
+  <si>
+    <t>50 ANGLES</t>
+  </si>
+  <si>
+    <t>RAD</t>
+  </si>
+  <si>
+    <t>SINE</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>XPOS</t>
+  </si>
+  <si>
+    <t>YPOS</t>
+  </si>
+  <si>
+    <t>VX</t>
+  </si>
+  <si>
+    <t>VY</t>
   </si>
 </sst>
 </file>
@@ -413,41 +434,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C411A35-7737-4A2E-A6EB-E0064DD80CD6}">
-  <dimension ref="D1:T162"/>
+  <dimension ref="D1:Z162"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D2">
         <f>ROUND(10*K2,0)</f>
         <v>2</v>
@@ -479,11 +524,39 @@
         <f>(M2)*3.14/(180)</f>
         <v>0.17444444444444446</v>
       </c>
-      <c r="T2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <f>COS(T2)</f>
+        <v>0.98482311367909725</v>
+      </c>
+      <c r="S2">
+        <f>SIN(T2)</f>
+        <v>0.17356104045380674</v>
+      </c>
+      <c r="T2">
+        <f>(U2)*3.14/(180)</f>
+        <v>0.17444444444444446</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <f>ROUND(10*S2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <f>ROUND(10*R2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <f>ROUND(32*S2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="Z2">
+        <f>ROUND(32*R2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D3">
         <f t="shared" ref="D3:D66" si="0">ROUND(10*K3,0)</f>
         <v>2</v>
@@ -515,8 +588,39 @@
         <f t="shared" ref="N3:N66" si="5">(M3)*3.14/(180)</f>
         <v>0.19188888888888889</v>
       </c>
-    </row>
-    <row r="4" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R52" si="6">COS(T3)</f>
+        <v>0.97360556638056994</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S52" si="7">SIN(T3)</f>
+        <v>0.2282371597982451</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T52" si="8">(U3)*3.14/(180)</f>
+        <v>0.23026666666666668</v>
+      </c>
+      <c r="U3">
+        <v>13.2</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W52" si="9">ROUND(10*S3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X52" si="10">ROUND(10*R3,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y52" si="11">ROUND(32*S3,0)</f>
+        <v>7</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z52" si="12">ROUND(32*R3,0)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -530,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H66" si="6">ROUND(32*J4,0)</f>
+        <f t="shared" ref="H4:H66" si="13">ROUND(32*J4,0)</f>
         <v>31</v>
       </c>
       <c r="J4">
@@ -548,8 +652,39 @@
         <f t="shared" si="5"/>
         <v>0.20933333333333334</v>
       </c>
-    </row>
-    <row r="5" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>0.95935493456787246</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="7"/>
+        <v>0.28220224931823845</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="8"/>
+        <v>0.28608888888888884</v>
+      </c>
+      <c r="U4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -563,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="J5">
@@ -581,8 +716,39 @@
         <f t="shared" si="5"/>
         <v>0.22677777777777777</v>
       </c>
-    </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>0.94211561339666194</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>0.33528819095552909</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="8"/>
+        <v>0.34191111111111111</v>
+      </c>
+      <c r="U5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -596,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="J6">
@@ -614,8 +780,39 @@
         <f t="shared" si="5"/>
         <v>0.24422222222222223</v>
       </c>
-    </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>0.92194130872060753</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>0.38732960547127498</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="8"/>
+        <v>0.39773333333333333</v>
+      </c>
+      <c r="U6">
+        <v>22.8</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -629,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="J7">
@@ -647,8 +844,39 @@
         <f t="shared" si="5"/>
         <v>0.26166666666666666</v>
       </c>
-    </row>
-    <row r="8" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>0.89889486978093147</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>0.43816436765387745</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="8"/>
+        <v>0.45355555555555555</v>
+      </c>
+      <c r="U7">
+        <v>26</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -662,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="J8">
@@ -680,8 +908,39 @@
         <f t="shared" si="5"/>
         <v>0.27911111111111114</v>
       </c>
-    </row>
-    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>0.87304809341145295</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>0.48763411138949969</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>0.50937777777777782</v>
+      </c>
+      <c r="U8">
+        <v>29.2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -695,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="J9">
@@ -713,8 +972,39 @@
         <f t="shared" si="5"/>
         <v>0.29655555555555557</v>
       </c>
-    </row>
-    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>0.84448150036909297</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>0.53558472302182569</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="8"/>
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="U9">
+        <v>32.4</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -728,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="J10">
@@ -746,8 +1036,39 @@
         <f t="shared" si="5"/>
         <v>0.314</v>
       </c>
-    </row>
-    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>0.81328408448664302</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>0.58186682146408975</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>0.62102222222222225</v>
+      </c>
+      <c r="U10">
+        <v>35.6</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -761,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="J11">
@@ -779,8 +1100,39 @@
         <f t="shared" si="5"/>
         <v>0.33144444444444449</v>
       </c>
-    </row>
-    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>0.77955303542926402</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>0.62633622356767826</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>0.67684444444444436</v>
+      </c>
+      <c r="U11">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -794,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="J12">
@@ -812,8 +1164,39 @@
         <f t="shared" si="5"/>
         <v>0.34888888888888892</v>
       </c>
-    </row>
-    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>0.74339343591841445</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>0.66885439329753549</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>0.73266666666666669</v>
+      </c>
+      <c r="U12">
+        <v>42</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -827,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="J13">
@@ -845,8 +1228,39 @@
         <f t="shared" si="5"/>
         <v>0.36633333333333334</v>
       </c>
-    </row>
-    <row r="14" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>0.70491793436645167</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>0.7092888733150513</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>0.78848888888888902</v>
+      </c>
+      <c r="U13">
+        <v>45.2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -860,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="J14">
@@ -878,8 +1292,39 @@
         <f t="shared" si="5"/>
         <v>0.38377777777777777</v>
       </c>
-    </row>
-    <row r="15" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>0.66424639394174911</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>0.74751369762391817</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>0.84431111111111112</v>
+      </c>
+      <c r="U14">
+        <v>48.4</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -893,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="J15">
@@ -911,8 +1356,39 @@
         <f t="shared" si="5"/>
         <v>0.4012222222222222</v>
       </c>
-    </row>
-    <row r="16" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>0.62150551915760166</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>0.78340978399343475</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>0.90013333333333334</v>
+      </c>
+      <c r="U15">
+        <v>51.6</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -926,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="J16">
@@ -944,8 +1420,39 @@
         <f t="shared" si="5"/>
         <v>0.41866666666666669</v>
       </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>0.57682846114821229</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>0.81686530493673526</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="8"/>
+        <v>0.95595555555555556</v>
+      </c>
+      <c r="U16">
+        <v>54.8</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -959,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="J17">
@@ -977,8 +1484,39 @@
         <f t="shared" si="5"/>
         <v>0.43611111111111112</v>
       </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>0.53035440286144619</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>0.84777603608823415</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="8"/>
+        <v>1.0117777777777779</v>
+      </c>
+      <c r="U17">
+        <v>58</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -992,7 +1530,7 @@
         <v>15</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="J18">
@@ -1010,8 +1548,39 @@
         <f t="shared" si="5"/>
         <v>0.45355555555555555</v>
       </c>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>0.482228125460608</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>0.87604568089497936</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="8"/>
+        <v>1.0676000000000001</v>
+      </c>
+      <c r="U18">
+        <v>61.2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1025,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="J19">
@@ -1043,8 +1612,39 @@
         <f t="shared" si="5"/>
         <v>0.47100000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>0.4325995572860335</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>0.90158617061040136</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="8"/>
+        <v>1.1234222222222223</v>
+      </c>
+      <c r="U19">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1058,7 +1658,7 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="J20">
@@ -1076,8 +1676,39 @@
         <f t="shared" si="5"/>
         <v>0.48844444444444446</v>
       </c>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0.38162330678162315</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>0.92431793865588219</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="8"/>
+        <v>1.1792444444444443</v>
+      </c>
+      <c r="U20">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1091,7 +1722,7 @@
         <v>16</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="J21">
@@ -1109,8 +1740,39 @@
         <f t="shared" si="5"/>
         <v>0.50588888888888894</v>
       </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>0.32945818084139411</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>0.94417016849542501</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="8"/>
+        <v>1.2350666666666668</v>
+      </c>
+      <c r="U21">
+        <v>70.8</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1124,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="J22">
@@ -1142,8 +1804,39 @@
         <f t="shared" si="5"/>
         <v>0.52333333333333332</v>
       </c>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>0.27626669007655613</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>0.96108101425121495</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="8"/>
+        <v>1.290888888888889</v>
+      </c>
+      <c r="U22">
+        <v>74</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1157,7 +1850,7 @@
         <v>17</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J23">
@@ -1175,8 +1868,39 @@
         <f t="shared" si="5"/>
         <v>0.5407777777777778</v>
       </c>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>0.2222145425443505</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>0.97499779337278758</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="8"/>
+        <v>1.3467111111111112</v>
+      </c>
+      <c r="U23">
+        <v>77.2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1190,7 +1914,7 @@
         <v>17</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J24">
@@ -1208,8 +1932,39 @@
         <f t="shared" si="5"/>
         <v>0.55822222222222229</v>
       </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>0.16747012751585238</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>0.98587715075957827</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="8"/>
+        <v>1.4025333333333334</v>
+      </c>
+      <c r="U24">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1223,7 +1978,7 @@
         <v>18</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J25">
@@ -1241,8 +1996,39 @@
         <f t="shared" si="5"/>
         <v>0.57566666666666666</v>
       </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>0.11220399089095588</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>0.99368519382556075</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="8"/>
+        <v>1.4583555555555556</v>
+      </c>
+      <c r="U25">
+        <v>83.6</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1256,7 +2042,7 @@
         <v>18</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J26">
@@ -1274,8 +2060,39 @@
         <f t="shared" si="5"/>
         <v>0.59311111111111114</v>
       </c>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>5.6588303894788784E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="7"/>
+        <v>0.99839759808520723</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="8"/>
+        <v>1.5141777777777778</v>
+      </c>
+      <c r="U26">
+        <v>86.8</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1289,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="J27">
@@ -1307,8 +2124,39 @@
         <f t="shared" si="5"/>
         <v>0.61055555555555563</v>
       </c>
-    </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>7.9632671073326335E-4</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="7"/>
+        <v>0.99999968293183461</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="8"/>
+        <v>1.57</v>
+      </c>
+      <c r="U27">
+        <v>90</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1322,7 +2170,7 @@
         <v>19</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="J28">
@@ -1340,8 +2188,39 @@
         <f t="shared" si="5"/>
         <v>0.628</v>
       </c>
-    </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>-5.4998131278997518E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>0.99848645737226605</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="8"/>
+        <v>1.6258222222222223</v>
+      </c>
+      <c r="U28">
+        <v>93.2</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1355,7 +2234,7 @@
         <v>20</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="J29">
@@ -1373,8 +2252,39 @@
         <f t="shared" si="5"/>
         <v>0.64544444444444449</v>
       </c>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>-0.11062125296370823</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="7"/>
+        <v>0.99386263557532906</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="8"/>
+        <v>1.6816444444444445</v>
+      </c>
+      <c r="U29">
+        <v>96.4</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="12"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1388,7 +2298,7 @@
         <v>20</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="J30">
@@ -1406,8 +2316,39 @@
         <f t="shared" si="5"/>
         <v>0.66288888888888897</v>
       </c>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>-0.16589975499864651</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>0.98614262218575111</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="8"/>
+        <v>1.7374666666666665</v>
+      </c>
+      <c r="U30">
+        <v>99.6</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="12"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1421,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="J31">
@@ -1439,8 +2380,39 @@
         <f t="shared" si="5"/>
         <v>0.68033333333333335</v>
       </c>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>-0.2206614276365827</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>0.97535046744920628</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="8"/>
+        <v>1.7932888888888892</v>
+      </c>
+      <c r="U31">
+        <v>102.8</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="12"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="32" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1454,7 +2426,7 @@
         <v>21</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="J32">
@@ -1472,8 +2444,39 @@
         <f t="shared" si="5"/>
         <v>0.69777777777777783</v>
       </c>
-    </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>-0.27473567121479425</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>0.96151979228831086</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="8"/>
+        <v>1.8491111111111114</v>
+      </c>
+      <c r="U32">
+        <v>106</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="12"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D33">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1487,7 +2490,7 @@
         <v>21</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="J33">
@@ -1505,8 +2508,39 @@
         <f t="shared" si="5"/>
         <v>0.71522222222222231</v>
       </c>
-    </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>-0.32795402762614262</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="7"/>
+        <v>0.94469368356297978</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="8"/>
+        <v>1.9049333333333336</v>
+      </c>
+      <c r="U33">
+        <v>109.2</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="12"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1520,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="J34">
@@ -1538,8 +2572,39 @@
         <f t="shared" si="5"/>
         <v>0.73266666666666669</v>
       </c>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>-0.3801507051185315</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="7"/>
+        <v>0.92492455984144095</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="8"/>
+        <v>1.9607555555555558</v>
+      </c>
+      <c r="U34">
+        <v>112.4</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="12"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D35">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1553,7 +2618,7 @@
         <v>22</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="J35">
@@ -1571,8 +2636,39 @@
         <f t="shared" si="5"/>
         <v>0.75011111111111117</v>
       </c>
-    </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>-0.43116309478784154</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="7"/>
+        <v>0.90227400810007308</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="8"/>
+        <v>2.0165777777777776</v>
+      </c>
+      <c r="U35">
+        <v>115.6</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="12"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D36">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1586,7 +2682,7 @@
         <v>23</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="J36">
@@ -1604,8 +2700,39 @@
         <f t="shared" si="5"/>
         <v>0.76755555555555555</v>
       </c>
-    </row>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>-0.48083227715530374</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="7"/>
+        <v>0.87681259186079508</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="8"/>
+        <v>2.0724</v>
+      </c>
+      <c r="U36">
+        <v>118.8</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="12"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D37">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1619,7 +2746,7 @@
         <v>23</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="J37">
@@ -1637,8 +2764,39 @@
         <f t="shared" si="5"/>
         <v>0.78500000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>-0.52900351725115935</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="7"/>
+        <v>0.84861963136372376</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="8"/>
+        <v>2.1282222222222225</v>
+      </c>
+      <c r="U37">
+        <v>122</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="12"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D38">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1652,7 +2810,7 @@
         <v>23</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="J38">
@@ -1670,8 +2828,39 @@
         <f t="shared" si="5"/>
         <v>0.8024444444444444</v>
       </c>
-    </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>-0.57552674666227643</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="7"/>
+        <v>0.81778295645992516</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="8"/>
+        <v>2.1840444444444449</v>
+      </c>
+      <c r="U38">
+        <v>125.2</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="10"/>
+        <v>-6</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="12"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D39">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1685,7 +2874,7 @@
         <v>24</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="J39">
@@ -1703,8 +2892,39 @@
         <f t="shared" si="5"/>
         <v>0.819888888888889</v>
       </c>
-    </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>-0.62025703104198626</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="7"/>
+        <v>0.78439863299407941</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="8"/>
+        <v>2.2398666666666669</v>
+      </c>
+      <c r="U39">
+        <v>128.4</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="10"/>
+        <v>-6</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="12"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D40">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1718,7 +2938,7 @@
         <v>24</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J40">
@@ -1736,8 +2956,39 @@
         <f t="shared" si="5"/>
         <v>0.83733333333333337</v>
       </c>
-    </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>-0.66305502162570606</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="7"/>
+        <v>0.748570663529459</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="8"/>
+        <v>2.2956888888888889</v>
+      </c>
+      <c r="U40">
+        <v>131.6</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="12"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1751,7 +3002,7 @@
         <v>25</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J41">
@@ -1769,8 +3020,39 @@
         <f t="shared" si="5"/>
         <v>0.85477777777777786</v>
       </c>
-    </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>-0.70378738934573193</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>0.7104106633475592</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="8"/>
+        <v>2.3515111111111113</v>
+      </c>
+      <c r="U41">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="12"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D42">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1784,7 +3066,7 @@
         <v>25</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J42">
@@ -1802,8 +3084,39 @@
         <f t="shared" si="5"/>
         <v>0.87222222222222223</v>
       </c>
-    </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>-0.74232724019280194</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="7"/>
+        <v>0.67003751273174106</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="8"/>
+        <v>2.4073333333333333</v>
+      </c>
+      <c r="U42">
+        <v>138</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="12"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D43">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1817,7 +3130,7 @@
         <v>25</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J43">
@@ -1835,8 +3148,39 @@
         <f t="shared" si="5"/>
         <v>0.88966666666666672</v>
       </c>
-    </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>-0.77855451053045099</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>0.62757698661812789</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="8"/>
+        <v>2.4631555555555553</v>
+      </c>
+      <c r="U43">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="10"/>
+        <v>-8</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="12"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D44">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1850,7 +3194,7 @@
         <v>26</v>
       </c>
       <c r="H44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J44">
@@ -1868,8 +3212,39 @@
         <f t="shared" si="5"/>
         <v>0.90711111111111109</v>
       </c>
-    </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>-0.8123563411306246</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="7"/>
+        <v>0.58316136276751418</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="8"/>
+        <v>2.5189777777777782</v>
+      </c>
+      <c r="U44">
+        <v>144.4</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="10"/>
+        <v>-8</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="12"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D45">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1883,7 +3258,7 @@
         <v>26</v>
       </c>
       <c r="H45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="J45">
@@ -1901,8 +3276,39 @@
         <f t="shared" si="5"/>
         <v>0.92455555555555569</v>
       </c>
-    </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>-0.84362742876531616</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="7"/>
+        <v>0.53692900967895307</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="8"/>
+        <v>2.5748000000000002</v>
+      </c>
+      <c r="U45">
+        <v>147.6</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="10"/>
+        <v>-8</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="12"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D46">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1916,7 +3322,7 @@
         <v>26</v>
       </c>
       <c r="H46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="J46">
@@ -1934,8 +3340,39 @@
         <f t="shared" si="5"/>
         <v>0.94200000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>-0.87227035425891664</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="7"/>
+        <v>0.48902395552879013</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="8"/>
+        <v>2.6306222222222226</v>
+      </c>
+      <c r="U46">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="10"/>
+        <v>-9</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="12"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D47">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1949,7 +3386,7 @@
         <v>27</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="J47">
@@ -1967,8 +3404,39 @@
         <f t="shared" si="5"/>
         <v>0.95944444444444454</v>
       </c>
-    </row>
-    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>-0.8981958859792788</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="7"/>
+        <v>0.43959543947804841</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="8"/>
+        <v>2.6864444444444446</v>
+      </c>
+      <c r="U47">
+        <v>154</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="10"/>
+        <v>-9</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="12"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D48">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1982,7 +3450,7 @@
         <v>27</v>
       </c>
       <c r="H48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="J48">
@@ -2000,8 +3468,39 @@
         <f t="shared" si="5"/>
         <v>0.97688888888888892</v>
       </c>
-    </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f t="shared" si="6"/>
+        <v>-0.92132325782203994</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="7"/>
+        <v>0.38879744674596695</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="8"/>
+        <v>2.7422666666666666</v>
+      </c>
+      <c r="U48">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="10"/>
+        <v>-9</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="12"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="49" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D49">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2015,7 +3514,7 @@
         <v>27</v>
       </c>
       <c r="H49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="J49">
@@ -2033,8 +3532,39 @@
         <f t="shared" si="5"/>
         <v>0.9943333333333334</v>
       </c>
-    </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <f t="shared" si="6"/>
+        <v>-0.94158042082218607</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="7"/>
+        <v>0.33678822889809407</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="8"/>
+        <v>2.7980888888888891</v>
+      </c>
+      <c r="U49">
+        <v>160.4</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="10"/>
+        <v>-9</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="12"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="50" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D50">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2048,7 +3578,7 @@
         <v>27</v>
       </c>
       <c r="H50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="J50">
@@ -2066,8 +3596,39 @@
         <f t="shared" si="5"/>
         <v>1.0117777777777779</v>
       </c>
-    </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <f t="shared" si="6"/>
+        <v>-0.95890426760901304</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="7"/>
+        <v>0.28372981084338356</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="8"/>
+        <v>2.8539111111111106</v>
+      </c>
+      <c r="U50">
+        <v>163.6</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="12"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="51" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D51">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2081,7 +3642,7 @@
         <v>28</v>
       </c>
       <c r="H51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="J51">
@@ -2099,8 +3660,39 @@
         <f t="shared" si="5"/>
         <v>1.0292222222222223</v>
       </c>
-    </row>
-    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <f t="shared" si="6"/>
+        <v>-0.97324082900523934</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="7"/>
+        <v>0.22978748607614466</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="8"/>
+        <v>2.9097333333333335</v>
+      </c>
+      <c r="U51">
+        <v>166.8</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="12"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="52" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D52">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2114,7 +3706,7 @@
         <v>28</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="J52">
@@ -2132,8 +3724,39 @@
         <f t="shared" si="5"/>
         <v>1.0466666666666666</v>
       </c>
-    </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <f t="shared" si="6"/>
+        <v>-0.98454544215779649</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="7"/>
+        <v>0.1751293017353433</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="8"/>
+        <v>2.9655555555555559</v>
+      </c>
+      <c r="U52">
+        <v>170</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="12"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="53" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D53">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2147,7 +3770,7 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="J53">
@@ -2166,7 +3789,7 @@
         <v>1.0641111111111112</v>
       </c>
     </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D54">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2180,7 +3803,7 @@
         <v>29</v>
       </c>
       <c r="H54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="J54">
@@ -2199,7 +3822,7 @@
         <v>1.0815555555555556</v>
       </c>
     </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D55">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2213,7 +3836,7 @@
         <v>29</v>
       </c>
       <c r="H55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="J55">
@@ -2232,7 +3855,7 @@
         <v>1.0990000000000002</v>
       </c>
     </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D56">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2246,7 +3869,7 @@
         <v>29</v>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="J56">
@@ -2265,7 +3888,7 @@
         <v>1.1164444444444446</v>
       </c>
     </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D57">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2279,7 +3902,7 @@
         <v>29</v>
       </c>
       <c r="H57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="J57">
@@ -2298,7 +3921,7 @@
         <v>1.1338888888888889</v>
       </c>
     </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D58">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2312,7 +3935,7 @@
         <v>29</v>
       </c>
       <c r="H58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="J58">
@@ -2331,7 +3954,7 @@
         <v>1.1513333333333333</v>
       </c>
     </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D59">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2345,7 +3968,7 @@
         <v>30</v>
       </c>
       <c r="H59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="J59">
@@ -2364,7 +3987,7 @@
         <v>1.1687777777777777</v>
       </c>
     </row>
-    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D60">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2378,7 +4001,7 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="J60">
@@ -2397,7 +4020,7 @@
         <v>1.1862222222222223</v>
       </c>
     </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D61">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2411,7 +4034,7 @@
         <v>30</v>
       </c>
       <c r="H61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="J61">
@@ -2430,7 +4053,7 @@
         <v>1.2036666666666667</v>
       </c>
     </row>
-    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D62">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2444,7 +4067,7 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="J62">
@@ -2463,7 +4086,7 @@
         <v>1.2211111111111113</v>
       </c>
     </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2477,7 +4100,7 @@
         <v>30</v>
       </c>
       <c r="H63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="J63">
@@ -2496,7 +4119,7 @@
         <v>1.2385555555555556</v>
       </c>
     </row>
-    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D64">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2510,7 +4133,7 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="J64">
@@ -2543,7 +4166,7 @@
         <v>31</v>
       </c>
       <c r="H65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="J65">
@@ -2576,7 +4199,7 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="J66">
@@ -2597,3168 +4220,3168 @@
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="7">ROUND(10*K67,0)</f>
+        <f t="shared" ref="D67:D130" si="14">ROUND(10*K67,0)</f>
         <v>10</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="8">ROUND(10*J67,0)</f>
+        <f t="shared" ref="E67:E130" si="15">ROUND(10*J67,0)</f>
         <v>3</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="9">ROUND(32*K68,0)</f>
+        <f t="shared" ref="G67:G130" si="16">ROUND(32*K68,0)</f>
         <v>31</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="10">ROUND(32*J67,0)</f>
+        <f t="shared" ref="H67:H130" si="17">ROUND(32*J67,0)</f>
         <v>8</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="11">COS(N67)</f>
+        <f t="shared" ref="J67:J130" si="18">COS(N67)</f>
         <v>0.25945998191488229</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="12">SIN(N67)</f>
+        <f t="shared" ref="K67:K130" si="19">SIN(N67)</f>
         <v>0.965753859834238</v>
       </c>
       <c r="M67">
         <v>75</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="13">(M67)*3.14/(180)</f>
+        <f t="shared" ref="N67:N130" si="20">(M67)*3.14/(180)</f>
         <v>1.3083333333333333</v>
       </c>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="G68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="H68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="J68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.24257431984069169</v>
       </c>
       <c r="K68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.97013282562431924</v>
       </c>
       <c r="M68">
         <v>76</v>
       </c>
       <c r="N68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.3257777777777779</v>
       </c>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="G69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="H69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="J69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.22561484217657451</v>
       </c>
       <c r="K69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.97421657909811787</v>
       </c>
       <c r="M69">
         <v>77</v>
       </c>
       <c r="N69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.3432222222222223</v>
       </c>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="G70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="H70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="J70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.20858670970727247</v>
       </c>
       <c r="K70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.97800387756567408</v>
       </c>
       <c r="M70">
         <v>78</v>
       </c>
       <c r="N70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.3606666666666667</v>
       </c>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="G71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="J71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.19149510410924828</v>
       </c>
       <c r="K71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.98149356854856062</v>
       </c>
       <c r="M71">
         <v>79</v>
       </c>
       <c r="N71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.3781111111111111</v>
       </c>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="J72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.17434522637389618</v>
       </c>
       <c r="K72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.98468459013058329</v>
       </c>
       <c r="M72">
         <v>80</v>
       </c>
       <c r="N72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.3955555555555557</v>
       </c>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.15714229522487641</v>
       </c>
       <c r="K73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.98757597128092267</v>
       </c>
       <c r="M73">
         <v>81</v>
       </c>
       <c r="N73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.413</v>
       </c>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.13989154553005118</v>
       </c>
       <c r="K74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99016683214961998</v>
       </c>
       <c r="M74">
         <v>82</v>
       </c>
       <c r="N74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.4304444444444446</v>
       </c>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.12259822670851127</v>
       </c>
       <c r="K75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99245638433531602</v>
       </c>
       <c r="M75">
         <v>83</v>
       </c>
       <c r="N75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.447888888888889</v>
       </c>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.10526760113317148</v>
       </c>
       <c r="K76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99444393112516283</v>
       </c>
       <c r="M76">
         <v>84</v>
       </c>
       <c r="N76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.4653333333333334</v>
       </c>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>8.7904942529426267E-2</v>
       </c>
       <c r="K77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99612886770683351</v>
       </c>
       <c r="M77">
         <v>85</v>
       </c>
       <c r="N77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.482777777777778</v>
       </c>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>7.0515534370350949E-2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99751068135256771</v>
       </c>
       <c r="M78">
         <v>86</v>
       </c>
       <c r="N78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.5002222222222223</v>
       </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>5.3104668268934625E-2</v>
       </c>
       <c r="K79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99858895157519467</v>
       </c>
       <c r="M79">
         <v>87</v>
       </c>
       <c r="N79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.5176666666666667</v>
       </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3.567764236783829E-2</v>
       </c>
       <c r="K80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99936335025608813</v>
       </c>
       <c r="M80">
         <v>88</v>
       </c>
       <c r="N80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.5351111111111111</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1.8239759727164722E-2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.9998336417450131</v>
       </c>
       <c r="M81">
         <v>89</v>
       </c>
       <c r="N81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.5525555555555557</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>7.9632671073326335E-4</v>
       </c>
       <c r="K82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99999968293183461</v>
       </c>
       <c r="M82">
         <v>90</v>
       </c>
       <c r="N82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.57</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.6647348628652931E-2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99986142329006578</v>
       </c>
       <c r="M83">
         <v>91</v>
       </c>
       <c r="N83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.5874444444444444</v>
       </c>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="J84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-3.408595816445139E-2</v>
       </c>
       <c r="K84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.9994189048922435</v>
       </c>
       <c r="M84">
         <v>92</v>
       </c>
       <c r="N84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.6048888888888888</v>
       </c>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="G85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-2</v>
       </c>
       <c r="J85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-5.1514195311648803E-2</v>
       </c>
       <c r="K85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99867226239712559</v>
       </c>
       <c r="M85">
         <v>93</v>
       </c>
       <c r="N85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.6223333333333336</v>
       </c>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="G86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-2</v>
       </c>
       <c r="J86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-6.8926756641557965E-2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.9976217230087141</v>
       </c>
       <c r="M86">
         <v>94</v>
       </c>
       <c r="N86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.639777777777778</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="G87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
       <c r="J87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-8.6318343495658728E-2</v>
       </c>
       <c r="K87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99626760640711665</v>
       </c>
       <c r="M87">
         <v>95</v>
       </c>
       <c r="N87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.6572222222222224</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="G88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.10368366359798285</v>
       </c>
       <c r="K88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99461032465126775</v>
       </c>
       <c r="M88">
         <v>96</v>
       </c>
       <c r="N88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.6746666666666667</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="G89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-4</v>
       </c>
       <c r="J89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.12101743266555902</v>
       </c>
       <c r="K89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99265038205353895</v>
       </c>
       <c r="M89">
         <v>97</v>
       </c>
       <c r="N89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.6921111111111111</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="G90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-4</v>
       </c>
       <c r="J90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.13831437601642513</v>
       </c>
       <c r="K90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.99038837502627575</v>
       </c>
       <c r="M90">
         <v>98</v>
       </c>
       <c r="N90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.7095555555555557</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="G91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="H91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-5</v>
       </c>
       <c r="J91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.15556923017471813</v>
       </c>
       <c r="K91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.98782499190030904</v>
       </c>
       <c r="M91">
         <v>99</v>
       </c>
       <c r="N91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.7270000000000001</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="G92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="H92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-6</v>
       </c>
       <c r="J92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.17277674447235586</v>
       </c>
       <c r="K92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.98496101271549541</v>
       </c>
       <c r="M92">
         <v>100</v>
       </c>
       <c r="N92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.7444444444444445</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="G93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="H93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-6</v>
       </c>
       <c r="J93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.18993168264681928</v>
       </c>
       <c r="K93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.98179730898335016</v>
       </c>
       <c r="M93">
         <v>101</v>
       </c>
       <c r="N93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.7618888888888888</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="G94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="H94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="J94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.20702882443455253</v>
       </c>
       <c r="K94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.97833484342184562</v>
       </c>
       <c r="M94">
         <v>102</v>
       </c>
       <c r="N94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.7793333333333334</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="G95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="H95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="J95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.22406296715949309</v>
       </c>
       <c r="K95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.97457466966245532</v>
       </c>
       <c r="M95">
         <v>103</v>
       </c>
       <c r="N95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.7967777777777778</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2</v>
       </c>
       <c r="G96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="H96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-8</v>
       </c>
       <c r="J96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.24102892731625206</v>
       </c>
       <c r="K96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.97051793192953262</v>
       </c>
       <c r="M96">
         <v>104</v>
       </c>
       <c r="N96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.8142222222222222</v>
       </c>
     </row>
     <row r="97" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-3</v>
       </c>
       <c r="G97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="H97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-8</v>
       </c>
       <c r="J97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.25792154214745899</v>
       </c>
       <c r="K97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.9661658646921224</v>
       </c>
       <c r="M97">
         <v>105</v>
       </c>
       <c r="N97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.8316666666666666</v>
       </c>
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-3</v>
       </c>
       <c r="G98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="H98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-9</v>
       </c>
       <c r="J98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.27473567121479425</v>
       </c>
       <c r="K98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.96151979228831086</v>
       </c>
       <c r="M98">
         <v>106</v>
       </c>
       <c r="N98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.8491111111111114</v>
       </c>
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-3</v>
       </c>
       <c r="G99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="H99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-9</v>
       </c>
       <c r="J99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.29146619796322748</v>
       </c>
       <c r="K99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.95658112852222876</v>
       </c>
       <c r="M99">
         <v>107</v>
       </c>
       <c r="N99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.8665555555555557</v>
       </c>
     </row>
     <row r="100" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-3</v>
       </c>
       <c r="G100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="H100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-10</v>
       </c>
       <c r="J100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.30810803127799258</v>
       </c>
       <c r="K100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.95135137623382848</v>
       </c>
       <c r="M100">
         <v>108</v>
       </c>
       <c r="N100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.8840000000000001</v>
       </c>
     </row>
     <row r="101" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-3</v>
       </c>
       <c r="G101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="H101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-10</v>
       </c>
       <c r="J101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.32465610703381687</v>
       </c>
       <c r="K101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.94583212684156948</v>
       </c>
       <c r="M101">
         <v>109</v>
       </c>
       <c r="N101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9014444444444445</v>
       </c>
     </row>
     <row r="102" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-3</v>
       </c>
       <c r="G102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="H102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-11</v>
       </c>
       <c r="J102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.34110538963593995</v>
       </c>
       <c r="K102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.94002505985814744</v>
       </c>
       <c r="M102">
         <v>110</v>
       </c>
       <c r="N102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9188888888888891</v>
       </c>
     </row>
     <row r="103" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-4</v>
       </c>
       <c r="G103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="H103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-11</v>
       </c>
       <c r="J103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.3574508735524487</v>
       </c>
       <c r="K103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.93393194237941735</v>
       </c>
       <c r="M103">
         <v>111</v>
       </c>
       <c r="N103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9363333333333335</v>
       </c>
     </row>
     <row r="104" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-4</v>
       </c>
       <c r="G104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="H104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-12</v>
       </c>
       <c r="J104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.37368758483746678</v>
       </c>
       <c r="K104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.92755462854666471</v>
       </c>
       <c r="M104">
         <v>112</v>
       </c>
       <c r="N104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9537777777777778</v>
       </c>
     </row>
     <row r="105" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-4</v>
       </c>
       <c r="G105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="H105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-12</v>
       </c>
       <c r="J105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.38981058264473001</v>
       </c>
       <c r="K105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.9208950589823881</v>
       </c>
       <c r="M105">
         <v>113</v>
       </c>
       <c r="N105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9712222222222222</v>
       </c>
     </row>
     <row r="106" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-4</v>
       </c>
       <c r="G106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="H106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-13</v>
       </c>
       <c r="J106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.4058149607310908</v>
       </c>
       <c r="K106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.91395526019976669</v>
       </c>
       <c r="M106">
         <v>114</v>
       </c>
       <c r="N106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9886666666666668</v>
       </c>
     </row>
     <row r="107" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-4</v>
       </c>
       <c r="G107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="H107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-13</v>
       </c>
       <c r="J107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.42169584894949186</v>
       </c>
       <c r="K107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.90673734398598993</v>
       </c>
       <c r="M107">
         <v>115</v>
       </c>
       <c r="N107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.0061111111111112</v>
       </c>
     </row>
     <row r="108" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-4</v>
       </c>
       <c r="G108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="H108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-14</v>
       </c>
       <c r="J108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.43744841473095775</v>
       </c>
       <c r="K108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.89924350675963849</v>
       </c>
       <c r="M108">
         <v>116</v>
       </c>
       <c r="N108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.0235555555555558</v>
       </c>
     </row>
     <row r="109" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="G109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="H109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-14</v>
       </c>
       <c r="J109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.45306786455514825</v>
       </c>
       <c r="K109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.89147602890231314</v>
       </c>
       <c r="M109">
         <v>117</v>
       </c>
       <c r="N109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.0409999999999999</v>
       </c>
     </row>
     <row r="110" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="G110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="H110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-15</v>
       </c>
       <c r="J110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.46854944540903348</v>
       </c>
       <c r="K110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.88343727406471095</v>
       </c>
       <c r="M110">
         <v>118</v>
       </c>
       <c r="N110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.0584444444444445</v>
       </c>
     </row>
     <row r="111" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="G111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="H111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-15</v>
       </c>
       <c r="J111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.48388844623323768</v>
       </c>
       <c r="K111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.87512968844736549</v>
       </c>
       <c r="M111">
         <v>119</v>
       </c>
       <c r="N111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.0758888888888891</v>
       </c>
     </row>
     <row r="112" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="G112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="H112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-16</v>
       </c>
       <c r="J112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.49908019935561981</v>
       </c>
       <c r="K112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.86655580005626576</v>
       </c>
       <c r="M112">
         <v>120</v>
       </c>
       <c r="N112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.0933333333333333</v>
       </c>
     </row>
     <row r="113" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="G113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="H113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-16</v>
       </c>
       <c r="J113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.51412008191165215</v>
       </c>
       <c r="K113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.85771821793357994</v>
       </c>
       <c r="M113">
         <v>121</v>
       </c>
       <c r="N113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.1107777777777779</v>
       </c>
     </row>
     <row r="114" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="G114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="H114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-17</v>
       </c>
       <c r="J114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.52900351725115935</v>
       </c>
       <c r="K114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.84861963136372376</v>
       </c>
       <c r="M114">
         <v>122</v>
       </c>
       <c r="N114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.1282222222222225</v>
       </c>
     </row>
     <row r="115" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="G115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="H115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-17</v>
       </c>
       <c r="J115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.54372597633099906</v>
       </c>
       <c r="K115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.8392628090550075</v>
       </c>
       <c r="M115">
         <v>123</v>
       </c>
       <c r="N115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.1456666666666666</v>
       </c>
     </row>
     <row r="116" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-6</v>
       </c>
       <c r="G116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="H116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-18</v>
       </c>
       <c r="J116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.55828297909325453</v>
       </c>
       <c r="K116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.82965059829711485</v>
       </c>
       <c r="M116">
         <v>124</v>
       </c>
       <c r="N116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.1631111111111112</v>
       </c>
     </row>
     <row r="117" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-6</v>
       </c>
       <c r="G117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="H117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-18</v>
       </c>
       <c r="J117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.57267009582851824</v>
       </c>
       <c r="K117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.81978592409467221</v>
       </c>
       <c r="M117">
         <v>125</v>
       </c>
       <c r="N117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.1805555555555554</v>
       </c>
     </row>
     <row r="118" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-6</v>
       </c>
       <c r="G118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="H118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-19</v>
       </c>
       <c r="J118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.58688294852385969</v>
       </c>
       <c r="K118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.80967178827716402</v>
       </c>
       <c r="M118">
         <v>126</v>
       </c>
       <c r="N118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.1980000000000004</v>
       </c>
     </row>
     <row r="119" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-6</v>
       </c>
       <c r="G119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="H119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-19</v>
       </c>
       <c r="J119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.60091721219505412</v>
       </c>
       <c r="K119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.79931126858547685</v>
       </c>
       <c r="M119">
         <v>127</v>
       </c>
       <c r="N119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.2154444444444445</v>
       </c>
     </row>
     <row r="120" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-6</v>
       </c>
       <c r="G120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="H120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-20</v>
       </c>
       <c r="J120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.61476861620268475</v>
       </c>
       <c r="K120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.78870751773533643</v>
       </c>
       <c r="M120">
         <v>128</v>
       </c>
       <c r="N120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.2328888888888891</v>
       </c>
     </row>
     <row r="121" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-6</v>
       </c>
       <c r="G121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="H121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-20</v>
       </c>
       <c r="J121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.62843294555169782</v>
       </c>
       <c r="K121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.77786376245793631</v>
       </c>
       <c r="M121">
         <v>129</v>
       </c>
       <c r="N121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.2503333333333333</v>
       </c>
     </row>
     <row r="122" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-6</v>
       </c>
       <c r="G122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="H122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-21</v>
       </c>
       <c r="J122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.64190604217403269</v>
       </c>
       <c r="K122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.76678330251803806</v>
       </c>
       <c r="M122">
         <v>130</v>
       </c>
       <c r="N122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.2677777777777779</v>
       </c>
     </row>
     <row r="123" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
       <c r="G123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="H123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-21</v>
       </c>
       <c r="J123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.65518380619392302</v>
       </c>
       <c r="K123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.75546950970985183</v>
       </c>
       <c r="M123">
         <v>131</v>
       </c>
       <c r="N123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.2852222222222225</v>
       </c>
     </row>
     <row r="124" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
       <c r="G124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="H124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-21</v>
       </c>
       <c r="J124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.6682621971754944</v>
       </c>
       <c r="K124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.74392582683099573</v>
       </c>
       <c r="M124">
         <v>132</v>
       </c>
       <c r="N124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.3026666666666666</v>
       </c>
     </row>
     <row r="125" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
       <c r="G125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="H125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-22</v>
       </c>
       <c r="J125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.68113723535227333</v>
       </c>
       <c r="K125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.73215576663484783</v>
       </c>
       <c r="M125">
         <v>133</v>
       </c>
       <c r="N125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.3201111111111112</v>
       </c>
     </row>
     <row r="126" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
       <c r="G126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="H126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-22</v>
       </c>
       <c r="J126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.69380500283823165</v>
       </c>
       <c r="K126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.72016291076161476</v>
       </c>
       <c r="M126">
         <v>134</v>
       </c>
       <c r="N126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.3375555555555554</v>
       </c>
     </row>
     <row r="127" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
       <c r="G127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="H127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-23</v>
       </c>
       <c r="J127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.7062616448200052</v>
       </c>
       <c r="K127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.70795090864843213</v>
       </c>
       <c r="M127">
         <v>135</v>
       </c>
       <c r="N127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.355</v>
       </c>
     </row>
     <row r="128" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
       <c r="G128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="H128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-23</v>
       </c>
       <c r="J128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.71850337072991555</v>
       </c>
       <c r="K128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.6955234764188406</v>
       </c>
       <c r="M128">
         <v>136</v>
       </c>
       <c r="N128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.3724444444444446</v>
       </c>
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
       <c r="G129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="H129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-23</v>
       </c>
       <c r="J129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.73052645539944328</v>
       </c>
       <c r="K129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.68288439575196414</v>
       </c>
       <c r="M129">
         <v>137</v>
       </c>
       <c r="N129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.3898888888888887</v>
       </c>
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
       <c r="G130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="H130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24</v>
       </c>
       <c r="J130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-0.74232724019280194</v>
       </c>
       <c r="K130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.67003751273174106</v>
       </c>
       <c r="M130">
         <v>138</v>
       </c>
       <c r="N130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.4073333333333333</v>
       </c>
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D131">
-        <f t="shared" ref="D131:D162" si="14">ROUND(10*K131,0)</f>
+        <f t="shared" ref="D131:D162" si="21">ROUND(10*K131,0)</f>
         <v>7</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E162" si="15">ROUND(10*J131,0)</f>
+        <f t="shared" ref="E131:E162" si="22">ROUND(10*J131,0)</f>
         <v>-8</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G161" si="16">ROUND(32*K132,0)</f>
+        <f t="shared" ref="G131:G161" si="23">ROUND(32*K132,0)</f>
         <v>21</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H162" si="17">ROUND(32*J131,0)</f>
+        <f t="shared" ref="H131:H162" si="24">ROUND(32*J131,0)</f>
         <v>-24</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J162" si="18">COS(N131)</f>
+        <f t="shared" ref="J131:J162" si="25">COS(N131)</f>
         <v>-0.75390213412026197</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K162" si="19">SIN(N131)</f>
+        <f t="shared" ref="K131:K162" si="26">SIN(N131)</f>
         <v>0.65698673667655916</v>
       </c>
       <c r="M131">
         <v>139</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N162" si="20">(M131)*3.14/(180)</f>
+        <f t="shared" ref="N131:N162" si="27">(M131)*3.14/(180)</f>
         <v>2.4247777777777779</v>
       </c>
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="E132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="G132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="H132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-24</v>
       </c>
       <c r="J132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.76524761493089355</v>
       </c>
       <c r="K132">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.64373603894964493</v>
       </c>
       <c r="M132">
         <v>140</v>
       </c>
       <c r="N132">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.4422222222222225</v>
       </c>
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="E133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="G133">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="H133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-25</v>
       </c>
       <c r="J133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.77636023018439038</v>
       </c>
       <c r="K133">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.63028945175057494</v>
       </c>
       <c r="M133">
         <v>141</v>
       </c>
       <c r="N133">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.4596666666666667</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="E134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="G134">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="H134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-25</v>
       </c>
       <c r="J134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.78723659830165138</v>
       </c>
       <c r="K134">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.6166510668882722</v>
       </c>
       <c r="M134">
         <v>142</v>
       </c>
       <c r="N134">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.4771111111111113</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="E135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="G135">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="H135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-26</v>
       </c>
       <c r="J135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.79787340959379671</v>
       </c>
       <c r="K135">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.60282503453586722</v>
       </c>
       <c r="M135">
         <v>143</v>
       </c>
       <c r="N135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.4945555555555559</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="E136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="G136">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="H136">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-26</v>
       </c>
       <c r="J136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.80826742726931011</v>
       </c>
       <c r="K136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.58881556196779528</v>
       </c>
       <c r="M136">
         <v>144</v>
       </c>
       <c r="N136">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.512</v>
       </c>
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="E137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="G137">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="H137">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-26</v>
       </c>
       <c r="J137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.81841548841899814</v>
       </c>
       <c r="K137">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.5746269122795179</v>
       </c>
       <c r="M137">
         <v>145</v>
       </c>
       <c r="N137">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.5294444444444446</v>
       </c>
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="E138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="G138">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="H138">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-27</v>
       </c>
       <c r="J138">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.82831450497846471</v>
       </c>
       <c r="K138">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.56026340309026168</v>
       </c>
       <c r="M138">
         <v>146</v>
       </c>
       <c r="N138">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.5468888888888888</v>
       </c>
     </row>
     <row r="139" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="E139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="G139">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="H139">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-27</v>
       </c>
       <c r="J139">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.83796146466781396</v>
       </c>
       <c r="K139">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.54572940522915925</v>
       </c>
       <c r="M139">
         <v>147</v>
       </c>
       <c r="N139">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.5643333333333334</v>
       </c>
     </row>
     <row r="140" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="E140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="G140">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="H140">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-27</v>
       </c>
       <c r="J140">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.84735343190828816</v>
       </c>
       <c r="K140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.5310293414052053</v>
       </c>
       <c r="M140">
         <v>148</v>
       </c>
       <c r="N140">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.5817777777777779</v>
       </c>
     </row>
     <row r="141" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="E141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G141">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="H141">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-27</v>
       </c>
       <c r="J141">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.85648754871556743</v>
       </c>
       <c r="K141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.51616768486142039</v>
       </c>
       <c r="M141">
         <v>149</v>
       </c>
       <c r="N141">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.5992222222222221</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="E142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G142">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="H142">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-28</v>
       </c>
       <c r="J142">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.86536103556945787</v>
       </c>
       <c r="K142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.50114895801363823</v>
       </c>
       <c r="M142">
         <v>150</v>
       </c>
       <c r="N142">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.6166666666666667</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="E143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G143">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="H143">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-28</v>
       </c>
       <c r="J143">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.87397119225970132</v>
       </c>
       <c r="K143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.48597773107433251</v>
       </c>
       <c r="M143">
         <v>151</v>
       </c>
       <c r="N143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.6341111111111113</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="E144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="H144">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-28</v>
       </c>
       <c r="J144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.88231539870765163</v>
       </c>
       <c r="K144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.47065862066189523</v>
       </c>
       <c r="M144">
         <v>152</v>
       </c>
       <c r="N144">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.6515555555555559</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="E145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="H145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-28</v>
       </c>
       <c r="J145">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.89039111576356755</v>
       </c>
       <c r="K145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.45519628839579662</v>
       </c>
       <c r="M145">
         <v>153</v>
       </c>
       <c r="N145">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.669</v>
       </c>
     </row>
     <row r="146" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="E146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="H146">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-29</v>
       </c>
       <c r="J146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.8981958859792788</v>
       </c>
       <c r="K146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.43959543947804841</v>
       </c>
       <c r="M146">
         <v>154</v>
       </c>
       <c r="N146">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.6864444444444446</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="E147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="H147">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-29</v>
       </c>
       <c r="J147">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.9057273343559884</v>
       </c>
       <c r="K147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.42386082126140845</v>
       </c>
       <c r="M147">
         <v>155</v>
       </c>
       <c r="N147">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.7038888888888892</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="E148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="H148">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-29</v>
       </c>
       <c r="J148">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.91298316906698807</v>
       </c>
       <c r="K148">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.40799722180475623</v>
       </c>
       <c r="M148">
         <v>156</v>
       </c>
       <c r="N148">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.7213333333333334</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="E149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="H149">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-29</v>
       </c>
       <c r="J149">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.91996118215506351</v>
       </c>
       <c r="K149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.39200946841608064</v>
       </c>
       <c r="M149">
         <v>157</v>
       </c>
       <c r="N149">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.738777777777778</v>
       </c>
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="E150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="H150">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-30</v>
       </c>
       <c r="J150">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.92665925020437634</v>
       </c>
       <c r="K150">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.37590242618352848</v>
       </c>
       <c r="M150">
         <v>158</v>
       </c>
       <c r="N150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.7562222222222221</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="E151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="H151">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-30</v>
       </c>
       <c r="J151">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.93307533498662332</v>
       </c>
       <c r="K151">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.3596809964949505</v>
       </c>
       <c r="M151">
         <v>159</v>
       </c>
       <c r="N151">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.7736666666666667</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="E152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="H152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-30</v>
       </c>
       <c r="J152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.93920748408126975</v>
       </c>
       <c r="K152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.34335011554640749</v>
       </c>
       <c r="M152">
         <v>160</v>
       </c>
       <c r="N152">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.7911111111111113</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="E153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-9</v>
       </c>
       <c r="G153">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="H153">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-30</v>
       </c>
       <c r="J153">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.94505383146967326</v>
       </c>
       <c r="K153">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.32691475284007965</v>
       </c>
       <c r="M153">
         <v>161</v>
       </c>
       <c r="N153">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.8085555555555555</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="E154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="G154">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="H154">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-30</v>
       </c>
       <c r="J154">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.95061259810291554</v>
       </c>
       <c r="K154">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.31037990967204165</v>
       </c>
       <c r="M154">
         <v>162</v>
       </c>
       <c r="N154">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.8260000000000001</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="E155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="G155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="H155">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-31</v>
       </c>
       <c r="J155">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.95588209244316757</v>
       </c>
       <c r="K155">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.29375061761036636</v>
       </c>
       <c r="M155">
         <v>163</v>
       </c>
       <c r="N155">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.8434444444444442</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="E156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="G156">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="H156">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-31</v>
       </c>
       <c r="J156">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.96086071097842729</v>
       </c>
       <c r="K156">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.27703193696401018</v>
       </c>
       <c r="M156">
         <v>164</v>
       </c>
       <c r="N156">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.8608888888888893</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="E157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="G157">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="H157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-31</v>
       </c>
       <c r="J157">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.96554693871046826</v>
       </c>
       <c r="K157">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.26022895524296158</v>
       </c>
       <c r="M157">
         <v>165</v>
       </c>
       <c r="N157">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.8783333333333334</v>
       </c>
     </row>
     <row r="158" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="G158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="H158">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-31</v>
       </c>
       <c r="J158">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.96993934961585693</v>
       </c>
       <c r="K158">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.24334678561010092</v>
       </c>
       <c r="M158">
         <v>166</v>
       </c>
       <c r="N158">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.895777777777778</v>
       </c>
     </row>
     <row r="159" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="G159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="H159">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-31</v>
       </c>
       <c r="J159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.97403660707989137</v>
       </c>
       <c r="K159">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.22639056532526566</v>
       </c>
       <c r="M159">
         <v>167</v>
       </c>
       <c r="N159">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.9132222222222222</v>
       </c>
     </row>
     <row r="160" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="G160">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="H160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-31</v>
       </c>
       <c r="J160">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.97783746430333507</v>
       </c>
       <c r="K160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.20936545418197336</v>
       </c>
       <c r="M160">
         <v>168</v>
       </c>
       <c r="N160">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.9306666666666668</v>
       </c>
     </row>
     <row r="161" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="G161">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="H161">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-31</v>
       </c>
       <c r="J161">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.98134076468181863</v>
       </c>
       <c r="K161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.19227663293729527</v>
       </c>
       <c r="M161">
         <v>169</v>
       </c>
       <c r="N161">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.9481111111111109</v>
       </c>
     </row>
     <row r="162" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="G162">
         <v>6</v>
       </c>
       <c r="H162">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-32</v>
       </c>
       <c r="J162">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.98454544215779649</v>
       </c>
       <c r="K162">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.1751293017353433</v>
       </c>
       <c r="M162">
         <v>170</v>
       </c>
       <c r="N162">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.9655555555555559</v>
       </c>
     </row>

--- a/SpeedsLocationsXY.xlsx
+++ b/SpeedsLocationsXY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron\Desktop\Studies\Semester 6\EE_Lab1\EE_LAB1_PROJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846A4BBC-FECE-45CE-A9C7-49AFB2051B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3751A538-53EE-4558-A965-F3CC38EE14BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{708F06E8-502F-46D8-8E6D-FA5AB6E3F58A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{708F06E8-502F-46D8-8E6D-FA5AB6E3F58A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Angles</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>VY</t>
+  </si>
+  <si>
+    <t>SLOPE32</t>
+  </si>
+  <si>
+    <t>OFFSET32</t>
   </si>
 </sst>
 </file>
@@ -434,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C411A35-7737-4A2E-A6EB-E0064DD80CD6}">
-  <dimension ref="D1:Z162"/>
+  <dimension ref="D1:AC162"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>7</v>
       </c>
@@ -491,8 +497,14 @@
       <c r="Z1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D2">
         <f>ROUND(10*K2,0)</f>
         <v>2</v>
@@ -555,8 +567,16 @@
         <f>ROUND(32*R2,0)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <f>ROUND(32*(Y2)/(Z2),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AC2">
+        <f>((64*32)-(AB2*288))</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D3">
         <f t="shared" ref="D3:D66" si="0">ROUND(10*K3,0)</f>
         <v>2</v>
@@ -619,8 +639,16 @@
         <f t="shared" ref="Z3:Z52" si="12">ROUND(32*R3,0)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB52" si="13">ROUND(32*(Y3)/(Z3),0)</f>
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC52" si="14">((64*32)-(AB3*288))</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -634,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H66" si="13">ROUND(32*J4,0)</f>
+        <f t="shared" ref="H4:H66" si="15">ROUND(32*J4,0)</f>
         <v>31</v>
       </c>
       <c r="J4">
@@ -683,8 +711,16 @@
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="14"/>
+        <v>-544</v>
+      </c>
+    </row>
+    <row r="5" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -698,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="J5">
@@ -747,8 +783,16 @@
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="14"/>
+        <v>-1408</v>
+      </c>
+    </row>
+    <row r="6" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -762,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="J6">
@@ -811,8 +855,16 @@
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="14"/>
+        <v>-1696</v>
+      </c>
+    </row>
+    <row r="7" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -826,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="J7">
@@ -875,8 +927,16 @@
         <f t="shared" si="12"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="14"/>
+        <v>-2272</v>
+      </c>
+    </row>
+    <row r="8" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -890,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="J8">
@@ -939,8 +999,16 @@
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="14"/>
+        <v>-3136</v>
+      </c>
+    </row>
+    <row r="9" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -954,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="J9">
@@ -1003,8 +1071,16 @@
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="14"/>
+        <v>-3712</v>
+      </c>
+    </row>
+    <row r="10" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1018,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="J10">
@@ -1067,8 +1143,16 @@
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="14"/>
+        <v>-4576</v>
+      </c>
+    </row>
+    <row r="11" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1082,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="H11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="J11">
@@ -1131,8 +1215,16 @@
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="14"/>
+        <v>-5440</v>
+      </c>
+    </row>
+    <row r="12" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1146,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="H12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="J12">
@@ -1195,8 +1287,16 @@
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="14"/>
+        <v>-6016</v>
+      </c>
+    </row>
+    <row r="13" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1210,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="H13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="J13">
@@ -1259,8 +1359,16 @@
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="14"/>
+        <v>-7168</v>
+      </c>
+    </row>
+    <row r="14" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1274,7 +1382,7 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="J14">
@@ -1323,8 +1431,16 @@
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="14"/>
+        <v>-8608</v>
+      </c>
+    </row>
+    <row r="15" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1338,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="J15">
@@ -1387,8 +1503,16 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="14"/>
+        <v>-9472</v>
+      </c>
+    </row>
+    <row r="16" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1402,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="J16">
@@ -1451,8 +1575,16 @@
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="14"/>
+        <v>-11200</v>
+      </c>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1466,7 +1598,7 @@
         <v>14</v>
       </c>
       <c r="H17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="J17">
@@ -1515,8 +1647,16 @@
         <f t="shared" si="12"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <f t="shared" si="13"/>
+        <v>51</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="14"/>
+        <v>-12640</v>
+      </c>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1530,7 +1670,7 @@
         <v>15</v>
       </c>
       <c r="H18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="J18">
@@ -1579,8 +1719,16 @@
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="14"/>
+        <v>-15232</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1594,7 +1742,7 @@
         <v>15</v>
       </c>
       <c r="H19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="J19">
@@ -1643,8 +1791,16 @@
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <f t="shared" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="14"/>
+        <v>-16960</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1658,7 +1814,7 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="J20">
@@ -1707,8 +1863,16 @@
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="14"/>
+        <v>-20992</v>
+      </c>
+    </row>
+    <row r="21" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1722,7 +1886,7 @@
         <v>16</v>
       </c>
       <c r="H21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="J21">
@@ -1771,8 +1935,16 @@
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="14"/>
+        <v>-23008</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1786,7 +1958,7 @@
         <v>16</v>
       </c>
       <c r="H22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="J22">
@@ -1835,8 +2007,16 @@
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <f t="shared" si="13"/>
+        <v>110</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="14"/>
+        <v>-29632</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1850,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="H23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="J23">
@@ -1899,8 +2079,16 @@
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <f t="shared" si="13"/>
+        <v>142</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="14"/>
+        <v>-38848</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1914,7 +2102,7 @@
         <v>17</v>
       </c>
       <c r="H24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="J24">
@@ -1963,8 +2151,16 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <f t="shared" si="13"/>
+        <v>205</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="14"/>
+        <v>-56992</v>
+      </c>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1978,7 +2174,7 @@
         <v>18</v>
       </c>
       <c r="H25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="J25">
@@ -2027,8 +2223,16 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <f t="shared" si="13"/>
+        <v>256</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="14"/>
+        <v>-71680</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2042,7 +2246,7 @@
         <v>18</v>
       </c>
       <c r="H26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="J26">
@@ -2091,8 +2295,16 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <f t="shared" si="13"/>
+        <v>512</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="14"/>
+        <v>-145408</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2106,7 +2318,7 @@
         <v>19</v>
       </c>
       <c r="H27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="J27">
@@ -2155,8 +2367,14 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2170,7 +2388,7 @@
         <v>19</v>
       </c>
       <c r="H28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="J28">
@@ -2219,8 +2437,16 @@
         <f t="shared" si="12"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="29" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <f t="shared" si="13"/>
+        <v>-512</v>
+      </c>
+      <c r="AC28">
+        <f>((64*32)-(AB28*288))</f>
+        <v>149504</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2234,7 +2460,7 @@
         <v>20</v>
       </c>
       <c r="H29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="J29">
@@ -2283,8 +2509,16 @@
         <f t="shared" si="12"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="30" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <f t="shared" si="13"/>
+        <v>-256</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="14"/>
+        <v>75776</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2298,7 +2532,7 @@
         <v>20</v>
       </c>
       <c r="H30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="J30">
@@ -2347,8 +2581,16 @@
         <f t="shared" si="12"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="31" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <f t="shared" si="13"/>
+        <v>-205</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="14"/>
+        <v>61088</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2362,7 +2604,7 @@
         <v>21</v>
       </c>
       <c r="H31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="J31">
@@ -2411,8 +2653,16 @@
         <f t="shared" si="12"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="32" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <f t="shared" si="13"/>
+        <v>-142</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="14"/>
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2426,7 +2676,7 @@
         <v>21</v>
       </c>
       <c r="H32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="J32">
@@ -2475,8 +2725,16 @@
         <f t="shared" si="12"/>
         <v>-9</v>
       </c>
-    </row>
-    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <f t="shared" si="13"/>
+        <v>-110</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="14"/>
+        <v>33728</v>
+      </c>
+    </row>
+    <row r="33" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D33">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2490,7 +2748,7 @@
         <v>21</v>
       </c>
       <c r="H33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="J33">
@@ -2539,8 +2797,16 @@
         <f t="shared" si="12"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB33">
+        <f t="shared" si="13"/>
+        <v>-96</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="14"/>
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="34" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2554,7 +2820,7 @@
         <v>22</v>
       </c>
       <c r="H34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="J34">
@@ -2603,8 +2869,16 @@
         <f t="shared" si="12"/>
         <v>-12</v>
       </c>
-    </row>
-    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB34">
+        <f t="shared" si="13"/>
+        <v>-80</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="14"/>
+        <v>25088</v>
+      </c>
+    </row>
+    <row r="35" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D35">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2618,7 +2892,7 @@
         <v>22</v>
       </c>
       <c r="H35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="J35">
@@ -2667,8 +2941,16 @@
         <f t="shared" si="12"/>
         <v>-14</v>
       </c>
-    </row>
-    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB35">
+        <f t="shared" si="13"/>
+        <v>-66</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="14"/>
+        <v>21056</v>
+      </c>
+    </row>
+    <row r="36" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D36">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2682,7 +2964,7 @@
         <v>23</v>
       </c>
       <c r="H36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="J36">
@@ -2731,8 +3013,16 @@
         <f t="shared" si="12"/>
         <v>-15</v>
       </c>
-    </row>
-    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB36">
+        <f t="shared" si="13"/>
+        <v>-60</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="14"/>
+        <v>19328</v>
+      </c>
+    </row>
+    <row r="37" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D37">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2746,7 +3036,7 @@
         <v>23</v>
       </c>
       <c r="H37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="J37">
@@ -2795,8 +3085,16 @@
         <f t="shared" si="12"/>
         <v>-17</v>
       </c>
-    </row>
-    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB37">
+        <f t="shared" si="13"/>
+        <v>-51</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="14"/>
+        <v>16736</v>
+      </c>
+    </row>
+    <row r="38" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D38">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2810,7 +3108,7 @@
         <v>23</v>
       </c>
       <c r="H38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="J38">
@@ -2859,8 +3157,16 @@
         <f t="shared" si="12"/>
         <v>-18</v>
       </c>
-    </row>
-    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB38">
+        <f t="shared" si="13"/>
+        <v>-46</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="14"/>
+        <v>15296</v>
+      </c>
+    </row>
+    <row r="39" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D39">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2874,7 +3180,7 @@
         <v>24</v>
       </c>
       <c r="H39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="J39">
@@ -2923,8 +3229,16 @@
         <f t="shared" si="12"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB39">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="14"/>
+        <v>13568</v>
+      </c>
+    </row>
+    <row r="40" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D40">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2938,7 +3252,7 @@
         <v>24</v>
       </c>
       <c r="H40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="J40">
@@ -2987,8 +3301,16 @@
         <f t="shared" si="12"/>
         <v>-21</v>
       </c>
-    </row>
-    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB40">
+        <f t="shared" si="13"/>
+        <v>-37</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="14"/>
+        <v>12704</v>
+      </c>
+    </row>
+    <row r="41" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3002,7 +3324,7 @@
         <v>25</v>
       </c>
       <c r="H41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="J41">
@@ -3051,8 +3373,16 @@
         <f t="shared" si="12"/>
         <v>-23</v>
       </c>
-    </row>
-    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB41">
+        <f t="shared" si="13"/>
+        <v>-32</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="14"/>
+        <v>11264</v>
+      </c>
+    </row>
+    <row r="42" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D42">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3066,7 +3396,7 @@
         <v>25</v>
       </c>
       <c r="H42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="J42">
@@ -3115,8 +3445,16 @@
         <f t="shared" si="12"/>
         <v>-24</v>
       </c>
-    </row>
-    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB42">
+        <f t="shared" si="13"/>
+        <v>-28</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="14"/>
+        <v>10112</v>
+      </c>
+    </row>
+    <row r="43" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D43">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3130,7 +3468,7 @@
         <v>25</v>
       </c>
       <c r="H43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="J43">
@@ -3179,8 +3517,16 @@
         <f t="shared" si="12"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB43">
+        <f t="shared" si="13"/>
+        <v>-26</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="14"/>
+        <v>9536</v>
+      </c>
+    </row>
+    <row r="44" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D44">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3194,7 +3540,7 @@
         <v>26</v>
       </c>
       <c r="H44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="J44">
@@ -3243,8 +3589,16 @@
         <f t="shared" si="12"/>
         <v>-26</v>
       </c>
-    </row>
-    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB44">
+        <f t="shared" si="13"/>
+        <v>-23</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="14"/>
+        <v>8672</v>
+      </c>
+    </row>
+    <row r="45" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D45">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3258,7 +3612,7 @@
         <v>26</v>
       </c>
       <c r="H45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="J45">
@@ -3307,8 +3661,16 @@
         <f t="shared" si="12"/>
         <v>-27</v>
       </c>
-    </row>
-    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB45">
+        <f t="shared" si="13"/>
+        <v>-20</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="14"/>
+        <v>7808</v>
+      </c>
+    </row>
+    <row r="46" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D46">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3322,7 +3684,7 @@
         <v>26</v>
       </c>
       <c r="H46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="J46">
@@ -3371,8 +3733,16 @@
         <f t="shared" si="12"/>
         <v>-28</v>
       </c>
-    </row>
-    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB46">
+        <f t="shared" si="13"/>
+        <v>-18</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="14"/>
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="47" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D47">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3386,7 +3756,7 @@
         <v>27</v>
       </c>
       <c r="H47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="J47">
@@ -3435,8 +3805,16 @@
         <f t="shared" si="12"/>
         <v>-29</v>
       </c>
-    </row>
-    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB47">
+        <f t="shared" si="13"/>
+        <v>-15</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="14"/>
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="48" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D48">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3450,7 +3828,7 @@
         <v>27</v>
       </c>
       <c r="H48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="J48">
@@ -3499,8 +3877,16 @@
         <f t="shared" si="12"/>
         <v>-29</v>
       </c>
-    </row>
-    <row r="49" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB48">
+        <f t="shared" si="13"/>
+        <v>-13</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="14"/>
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="49" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D49">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3514,7 +3900,7 @@
         <v>27</v>
       </c>
       <c r="H49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="J49">
@@ -3563,8 +3949,16 @@
         <f t="shared" si="12"/>
         <v>-30</v>
       </c>
-    </row>
-    <row r="50" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB49">
+        <f t="shared" si="13"/>
+        <v>-12</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="14"/>
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="50" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D50">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3578,7 +3972,7 @@
         <v>27</v>
       </c>
       <c r="H50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="J50">
@@ -3627,8 +4021,16 @@
         <f t="shared" si="12"/>
         <v>-31</v>
       </c>
-    </row>
-    <row r="51" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB50">
+        <f t="shared" si="13"/>
+        <v>-9</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="14"/>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="51" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D51">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3642,7 +4044,7 @@
         <v>28</v>
       </c>
       <c r="H51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="J51">
@@ -3691,8 +4093,16 @@
         <f t="shared" si="12"/>
         <v>-31</v>
       </c>
-    </row>
-    <row r="52" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB51">
+        <f t="shared" si="13"/>
+        <v>-7</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="14"/>
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="52" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D52">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3706,7 +4116,7 @@
         <v>28</v>
       </c>
       <c r="H52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="J52">
@@ -3755,8 +4165,16 @@
         <f t="shared" si="12"/>
         <v>-32</v>
       </c>
-    </row>
-    <row r="53" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="AB52">
+        <f t="shared" si="13"/>
+        <v>-6</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="14"/>
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="53" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D53">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3770,7 +4188,7 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="J53">
@@ -3789,7 +4207,7 @@
         <v>1.0641111111111112</v>
       </c>
     </row>
-    <row r="54" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D54">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3803,7 +4221,7 @@
         <v>29</v>
       </c>
       <c r="H54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="J54">
@@ -3822,7 +4240,7 @@
         <v>1.0815555555555556</v>
       </c>
     </row>
-    <row r="55" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D55">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3836,7 +4254,7 @@
         <v>29</v>
       </c>
       <c r="H55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="J55">
@@ -3855,7 +4273,7 @@
         <v>1.0990000000000002</v>
       </c>
     </row>
-    <row r="56" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D56">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3869,7 +4287,7 @@
         <v>29</v>
       </c>
       <c r="H56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="J56">
@@ -3888,7 +4306,7 @@
         <v>1.1164444444444446</v>
       </c>
     </row>
-    <row r="57" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D57">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3902,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="H57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="J57">
@@ -3921,7 +4339,7 @@
         <v>1.1338888888888889</v>
       </c>
     </row>
-    <row r="58" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D58">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3935,7 +4353,7 @@
         <v>29</v>
       </c>
       <c r="H58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="J58">
@@ -3954,7 +4372,7 @@
         <v>1.1513333333333333</v>
       </c>
     </row>
-    <row r="59" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D59">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3968,7 +4386,7 @@
         <v>30</v>
       </c>
       <c r="H59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="J59">
@@ -3987,7 +4405,7 @@
         <v>1.1687777777777777</v>
       </c>
     </row>
-    <row r="60" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D60">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4001,7 +4419,7 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="J60">
@@ -4020,7 +4438,7 @@
         <v>1.1862222222222223</v>
       </c>
     </row>
-    <row r="61" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D61">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4034,7 +4452,7 @@
         <v>30</v>
       </c>
       <c r="H61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="J61">
@@ -4053,7 +4471,7 @@
         <v>1.2036666666666667</v>
       </c>
     </row>
-    <row r="62" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D62">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4067,7 +4485,7 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="J62">
@@ -4086,7 +4504,7 @@
         <v>1.2211111111111113</v>
       </c>
     </row>
-    <row r="63" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4100,7 +4518,7 @@
         <v>30</v>
       </c>
       <c r="H63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="J63">
@@ -4119,7 +4537,7 @@
         <v>1.2385555555555556</v>
       </c>
     </row>
-    <row r="64" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D64">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4133,7 +4551,7 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="J64">
@@ -4166,7 +4584,7 @@
         <v>31</v>
       </c>
       <c r="H65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="J65">
@@ -4199,7 +4617,7 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="J66">
@@ -4220,3168 +4638,3168 @@
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="14">ROUND(10*K67,0)</f>
+        <f t="shared" ref="D67:D130" si="16">ROUND(10*K67,0)</f>
         <v>10</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="15">ROUND(10*J67,0)</f>
+        <f t="shared" ref="E67:E130" si="17">ROUND(10*J67,0)</f>
         <v>3</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="16">ROUND(32*K68,0)</f>
+        <f t="shared" ref="G67:G130" si="18">ROUND(32*K68,0)</f>
         <v>31</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="17">ROUND(32*J67,0)</f>
+        <f t="shared" ref="H67:H130" si="19">ROUND(32*J67,0)</f>
         <v>8</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="18">COS(N67)</f>
+        <f t="shared" ref="J67:J130" si="20">COS(N67)</f>
         <v>0.25945998191488229</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="19">SIN(N67)</f>
+        <f t="shared" ref="K67:K130" si="21">SIN(N67)</f>
         <v>0.965753859834238</v>
       </c>
       <c r="M67">
         <v>75</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="20">(M67)*3.14/(180)</f>
+        <f t="shared" ref="N67:N130" si="22">(M67)*3.14/(180)</f>
         <v>1.3083333333333333</v>
       </c>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="H68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="J68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.24257431984069169</v>
       </c>
       <c r="K68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.97013282562431924</v>
       </c>
       <c r="M68">
         <v>76</v>
       </c>
       <c r="N68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3257777777777779</v>
       </c>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="H69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="J69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.22561484217657451</v>
       </c>
       <c r="K69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.97421657909811787</v>
       </c>
       <c r="M69">
         <v>77</v>
       </c>
       <c r="N69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3432222222222223</v>
       </c>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="H70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="J70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.20858670970727247</v>
       </c>
       <c r="K70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.97800387756567408</v>
       </c>
       <c r="M70">
         <v>78</v>
       </c>
       <c r="N70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3606666666666667</v>
       </c>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="J71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.19149510410924828</v>
       </c>
       <c r="K71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98149356854856062</v>
       </c>
       <c r="M71">
         <v>79</v>
       </c>
       <c r="N71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3781111111111111</v>
       </c>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="J72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.17434522637389618</v>
       </c>
       <c r="K72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98468459013058329</v>
       </c>
       <c r="M72">
         <v>80</v>
       </c>
       <c r="N72">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3955555555555557</v>
       </c>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.15714229522487641</v>
       </c>
       <c r="K73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98757597128092267</v>
       </c>
       <c r="M73">
         <v>81</v>
       </c>
       <c r="N73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.413</v>
       </c>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="J74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.13989154553005118</v>
       </c>
       <c r="K74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99016683214961998</v>
       </c>
       <c r="M74">
         <v>82</v>
       </c>
       <c r="N74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4304444444444446</v>
       </c>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="J75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.12259822670851127</v>
       </c>
       <c r="K75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99245638433531602</v>
       </c>
       <c r="M75">
         <v>83</v>
       </c>
       <c r="N75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.447888888888889</v>
       </c>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="J76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.10526760113317148</v>
       </c>
       <c r="K76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99444393112516283</v>
       </c>
       <c r="M76">
         <v>84</v>
       </c>
       <c r="N76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4653333333333334</v>
       </c>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="J77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.7904942529426267E-2</v>
       </c>
       <c r="K77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99612886770683351</v>
       </c>
       <c r="M77">
         <v>85</v>
       </c>
       <c r="N77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.482777777777778</v>
       </c>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="J78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.0515534370350949E-2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99751068135256771</v>
       </c>
       <c r="M78">
         <v>86</v>
       </c>
       <c r="N78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.5002222222222223</v>
       </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="J79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.3104668268934625E-2</v>
       </c>
       <c r="K79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99858895157519467</v>
       </c>
       <c r="M79">
         <v>87</v>
       </c>
       <c r="N79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.5176666666666667</v>
       </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="J80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.567764236783829E-2</v>
       </c>
       <c r="K80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99936335025608813</v>
       </c>
       <c r="M80">
         <v>88</v>
       </c>
       <c r="N80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.5351111111111111</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="H81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="J81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8239759727164722E-2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.9998336417450131</v>
       </c>
       <c r="M81">
         <v>89</v>
       </c>
       <c r="N81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.5525555555555557</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="H82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="G82">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="J82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.9632671073326335E-4</v>
       </c>
       <c r="K82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.99999968293183461</v>
       </c>
       <c r="M82">
         <v>90</v>
       </c>
       <c r="N82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.57</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G83">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="20"/>
+        <v>-1.6647348628652931E-2</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="21"/>
+        <v>0.99986142329006578</v>
+      </c>
+      <c r="M83">
+        <v>91</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="22"/>
+        <v>1.5874444444444444</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D84">
         <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="H83">
+      <c r="H84">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="20"/>
+        <v>-3.408595816445139E-2</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="21"/>
+        <v>0.9994189048922435</v>
+      </c>
+      <c r="M84">
+        <v>92</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="22"/>
+        <v>1.6048888888888888</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E85">
         <f t="shared" si="17"/>
         <v>-1</v>
       </c>
-      <c r="J83">
+      <c r="G85">
         <f t="shared" si="18"/>
-        <v>-1.6647348628652931E-2</v>
-      </c>
-      <c r="K83">
+        <v>32</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="19"/>
-        <v>0.99986142329006578</v>
-      </c>
-      <c r="M83">
-        <v>91</v>
-      </c>
-      <c r="N83">
+        <v>-2</v>
+      </c>
+      <c r="J85">
         <f t="shared" si="20"/>
-        <v>1.5874444444444444</v>
-      </c>
-    </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D84">
-        <f t="shared" si="14"/>
+        <v>-5.1514195311648803E-2</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="21"/>
+        <v>0.99867226239712559</v>
+      </c>
+      <c r="M85">
+        <v>93</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="22"/>
+        <v>1.6223333333333336</v>
+      </c>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="H84">
+      <c r="E86">
         <f t="shared" si="17"/>
         <v>-1</v>
       </c>
-      <c r="J84">
+      <c r="G86">
         <f t="shared" si="18"/>
-        <v>-3.408595816445139E-2</v>
-      </c>
-      <c r="K84">
+        <v>32</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="19"/>
-        <v>0.9994189048922435</v>
-      </c>
-      <c r="M84">
-        <v>92</v>
-      </c>
-      <c r="N84">
+        <v>-2</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="20"/>
-        <v>1.6048888888888888</v>
-      </c>
-    </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D85">
-        <f t="shared" si="14"/>
+        <v>-6.8926756641557965E-2</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="21"/>
+        <v>0.9976217230087141</v>
+      </c>
+      <c r="M86">
+        <v>94</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="22"/>
+        <v>1.639777777777778</v>
+      </c>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="15"/>
+      <c r="E87">
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
-      <c r="G85">
+      <c r="G87">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="19"/>
+        <v>-3</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="20"/>
+        <v>-8.6318343495658728E-2</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="21"/>
+        <v>0.99626760640711665</v>
+      </c>
+      <c r="M87">
+        <v>95</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="22"/>
+        <v>1.6572222222222224</v>
+      </c>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D88">
         <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="H85">
+      <c r="H88">
+        <f t="shared" si="19"/>
+        <v>-3</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="20"/>
+        <v>-0.10368366359798285</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="21"/>
+        <v>0.99461032465126775</v>
+      </c>
+      <c r="M88">
+        <v>96</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="22"/>
+        <v>1.6746666666666667</v>
+      </c>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="19"/>
+        <v>-4</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="20"/>
+        <v>-0.12101743266555902</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="21"/>
+        <v>0.99265038205353895</v>
+      </c>
+      <c r="M89">
+        <v>97</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="22"/>
+        <v>1.6921111111111111</v>
+      </c>
+    </row>
+    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="19"/>
+        <v>-4</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="20"/>
+        <v>-0.13831437601642513</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="21"/>
+        <v>0.99038837502627575</v>
+      </c>
+      <c r="M90">
+        <v>98</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="22"/>
+        <v>1.7095555555555557</v>
+      </c>
+    </row>
+    <row r="91" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="17"/>
         <v>-2</v>
       </c>
-      <c r="J85">
+      <c r="G91">
         <f t="shared" si="18"/>
-        <v>-5.1514195311648803E-2</v>
-      </c>
-      <c r="K85">
+        <v>32</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="19"/>
-        <v>0.99867226239712559</v>
-      </c>
-      <c r="M85">
-        <v>93</v>
-      </c>
-      <c r="N85">
+        <v>-5</v>
+      </c>
+      <c r="J91">
         <f t="shared" si="20"/>
-        <v>1.6223333333333336</v>
-      </c>
-    </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D86">
-        <f t="shared" si="14"/>
+        <v>-0.15556923017471813</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="21"/>
+        <v>0.98782499190030904</v>
+      </c>
+      <c r="M91">
+        <v>99</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="22"/>
+        <v>1.7270000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="15"/>
-        <v>-1</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="H86">
+      <c r="E92">
         <f t="shared" si="17"/>
         <v>-2</v>
       </c>
-      <c r="J86">
+      <c r="G92">
         <f t="shared" si="18"/>
-        <v>-6.8926756641557965E-2</v>
-      </c>
-      <c r="K86">
+        <v>31</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="19"/>
-        <v>0.9976217230087141</v>
-      </c>
-      <c r="M86">
-        <v>94</v>
-      </c>
-      <c r="N86">
+        <v>-6</v>
+      </c>
+      <c r="J92">
         <f t="shared" si="20"/>
-        <v>1.639777777777778</v>
-      </c>
-    </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D87">
-        <f t="shared" si="14"/>
+        <v>-0.17277674447235586</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="21"/>
+        <v>0.98496101271549541</v>
+      </c>
+      <c r="M92">
+        <v>100</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="22"/>
+        <v>1.7444444444444445</v>
+      </c>
+    </row>
+    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="15"/>
-        <v>-1</v>
-      </c>
-      <c r="G87">
+      <c r="E93">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="19"/>
+        <v>-6</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="20"/>
+        <v>-0.18993168264681928</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="21"/>
+        <v>0.98179730898335016</v>
+      </c>
+      <c r="M93">
+        <v>101</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="22"/>
+        <v>1.7618888888888888</v>
+      </c>
+    </row>
+    <row r="94" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D94">
         <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="19"/>
+        <v>-7</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="20"/>
+        <v>-0.20702882443455253</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="21"/>
+        <v>0.97833484342184562</v>
+      </c>
+      <c r="M94">
+        <v>102</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="22"/>
+        <v>1.7793333333333334</v>
+      </c>
+    </row>
+    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="19"/>
+        <v>-7</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="20"/>
+        <v>-0.22406296715949309</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="21"/>
+        <v>0.97457466966245532</v>
+      </c>
+      <c r="M95">
+        <v>103</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="22"/>
+        <v>1.7967777777777778</v>
+      </c>
+    </row>
+    <row r="96" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="19"/>
+        <v>-8</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="20"/>
+        <v>-0.24102892731625206</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="21"/>
+        <v>0.97051793192953262</v>
+      </c>
+      <c r="M96">
+        <v>104</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="22"/>
+        <v>1.8142222222222222</v>
+      </c>
+    </row>
+    <row r="97" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="17"/>
         <v>-3</v>
       </c>
-      <c r="J87">
+      <c r="G97">
         <f t="shared" si="18"/>
-        <v>-8.6318343495658728E-2</v>
-      </c>
-      <c r="K87">
+        <v>31</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="19"/>
-        <v>0.99626760640711665</v>
-      </c>
-      <c r="M87">
-        <v>95</v>
-      </c>
-      <c r="N87">
+        <v>-8</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="20"/>
-        <v>1.6572222222222224</v>
-      </c>
-    </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D88">
-        <f t="shared" si="14"/>
+        <v>-0.25792154214745899</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="21"/>
+        <v>0.9661658646921224</v>
+      </c>
+      <c r="M97">
+        <v>105</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="22"/>
+        <v>1.8316666666666666</v>
+      </c>
+    </row>
+    <row r="98" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="15"/>
-        <v>-1</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="H88">
+      <c r="E98">
         <f t="shared" si="17"/>
         <v>-3</v>
       </c>
-      <c r="J88">
+      <c r="G98">
         <f t="shared" si="18"/>
-        <v>-0.10368366359798285</v>
-      </c>
-      <c r="K88">
+        <v>31</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="19"/>
-        <v>0.99461032465126775</v>
-      </c>
-      <c r="M88">
-        <v>96</v>
-      </c>
-      <c r="N88">
+        <v>-9</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="20"/>
-        <v>1.6746666666666667</v>
-      </c>
-    </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D89">
-        <f t="shared" si="14"/>
+        <v>-0.27473567121479425</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="21"/>
+        <v>0.96151979228831086</v>
+      </c>
+      <c r="M98">
+        <v>106</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="22"/>
+        <v>1.8491111111111114</v>
+      </c>
+    </row>
+    <row r="99" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="15"/>
-        <v>-1</v>
-      </c>
-      <c r="G89">
+      <c r="E99">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="19"/>
+        <v>-9</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="20"/>
+        <v>-0.29146619796322748</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="21"/>
+        <v>0.95658112852222876</v>
+      </c>
+      <c r="M99">
+        <v>107</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="22"/>
+        <v>1.8665555555555557</v>
+      </c>
+    </row>
+    <row r="100" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D100">
         <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="19"/>
+        <v>-10</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="20"/>
+        <v>-0.30810803127799258</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="21"/>
+        <v>0.95135137623382848</v>
+      </c>
+      <c r="M100">
+        <v>108</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="22"/>
+        <v>1.8840000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="19"/>
+        <v>-10</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="20"/>
+        <v>-0.32465610703381687</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="21"/>
+        <v>0.94583212684156948</v>
+      </c>
+      <c r="M101">
+        <v>109</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="22"/>
+        <v>1.9014444444444445</v>
+      </c>
+    </row>
+    <row r="102" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="19"/>
+        <v>-11</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="20"/>
+        <v>-0.34110538963593995</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="21"/>
+        <v>0.94002505985814744</v>
+      </c>
+      <c r="M102">
+        <v>110</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="22"/>
+        <v>1.9188888888888891</v>
+      </c>
+    </row>
+    <row r="103" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="E103">
         <f t="shared" si="17"/>
         <v>-4</v>
       </c>
-      <c r="J89">
+      <c r="G103">
         <f t="shared" si="18"/>
-        <v>-0.12101743266555902</v>
-      </c>
-      <c r="K89">
+        <v>30</v>
+      </c>
+      <c r="H103">
         <f t="shared" si="19"/>
-        <v>0.99265038205353895</v>
-      </c>
-      <c r="M89">
-        <v>97</v>
-      </c>
-      <c r="N89">
+        <v>-11</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="20"/>
-        <v>1.6921111111111111</v>
-      </c>
-    </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D90">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="15"/>
-        <v>-1</v>
-      </c>
-      <c r="G90">
+        <v>-0.3574508735524487</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="21"/>
+        <v>0.93393194237941735</v>
+      </c>
+      <c r="M103">
+        <v>111</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="22"/>
+        <v>1.9363333333333335</v>
+      </c>
+    </row>
+    <row r="104" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D104">
         <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="H90">
+        <v>9</v>
+      </c>
+      <c r="E104">
         <f t="shared" si="17"/>
         <v>-4</v>
       </c>
-      <c r="J90">
+      <c r="G104">
         <f t="shared" si="18"/>
-        <v>-0.13831437601642513</v>
-      </c>
-      <c r="K90">
+        <v>29</v>
+      </c>
+      <c r="H104">
         <f t="shared" si="19"/>
-        <v>0.99038837502627575</v>
-      </c>
-      <c r="M90">
-        <v>98</v>
-      </c>
-      <c r="N90">
+        <v>-12</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="20"/>
-        <v>1.7095555555555557</v>
-      </c>
-    </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D91">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="15"/>
-        <v>-2</v>
-      </c>
-      <c r="G91">
+        <v>-0.37368758483746678</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="21"/>
+        <v>0.92755462854666471</v>
+      </c>
+      <c r="M104">
+        <v>112</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="22"/>
+        <v>1.9537777777777778</v>
+      </c>
+    </row>
+    <row r="105" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D105">
         <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="H91">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="17"/>
+        <v>-4</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="19"/>
+        <v>-12</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="20"/>
+        <v>-0.38981058264473001</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="21"/>
+        <v>0.9208950589823881</v>
+      </c>
+      <c r="M105">
+        <v>113</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="22"/>
+        <v>1.9712222222222222</v>
+      </c>
+    </row>
+    <row r="106" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="17"/>
+        <v>-4</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="19"/>
+        <v>-13</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="20"/>
+        <v>-0.4058149607310908</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="21"/>
+        <v>0.91395526019976669</v>
+      </c>
+      <c r="M106">
+        <v>114</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="22"/>
+        <v>1.9886666666666668</v>
+      </c>
+    </row>
+    <row r="107" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="17"/>
+        <v>-4</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="19"/>
+        <v>-13</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="20"/>
+        <v>-0.42169584894949186</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="21"/>
+        <v>0.90673734398598993</v>
+      </c>
+      <c r="M107">
+        <v>115</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="22"/>
+        <v>2.0061111111111112</v>
+      </c>
+    </row>
+    <row r="108" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="17"/>
+        <v>-4</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="19"/>
+        <v>-14</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="20"/>
+        <v>-0.43744841473095775</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="21"/>
+        <v>0.89924350675963849</v>
+      </c>
+      <c r="M108">
+        <v>116</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="22"/>
+        <v>2.0235555555555558</v>
+      </c>
+    </row>
+    <row r="109" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="E109">
         <f t="shared" si="17"/>
         <v>-5</v>
       </c>
-      <c r="J91">
+      <c r="G109">
         <f t="shared" si="18"/>
-        <v>-0.15556923017471813</v>
-      </c>
-      <c r="K91">
+        <v>28</v>
+      </c>
+      <c r="H109">
         <f t="shared" si="19"/>
-        <v>0.98782499190030904</v>
-      </c>
-      <c r="M91">
-        <v>99</v>
-      </c>
-      <c r="N91">
+        <v>-14</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="20"/>
-        <v>1.7270000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D92">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="15"/>
-        <v>-2</v>
-      </c>
-      <c r="G92">
+        <v>-0.45306786455514825</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="21"/>
+        <v>0.89147602890231314</v>
+      </c>
+      <c r="M109">
+        <v>117</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="22"/>
+        <v>2.0409999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D110">
         <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="H92">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="17"/>
+        <v>-5</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="19"/>
+        <v>-15</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="20"/>
+        <v>-0.46854944540903348</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="21"/>
+        <v>0.88343727406471095</v>
+      </c>
+      <c r="M110">
+        <v>118</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="22"/>
+        <v>2.0584444444444445</v>
+      </c>
+    </row>
+    <row r="111" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="17"/>
+        <v>-5</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="19"/>
+        <v>-15</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="20"/>
+        <v>-0.48388844623323768</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="21"/>
+        <v>0.87512968844736549</v>
+      </c>
+      <c r="M111">
+        <v>119</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="22"/>
+        <v>2.0758888888888891</v>
+      </c>
+    </row>
+    <row r="112" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="17"/>
+        <v>-5</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="19"/>
+        <v>-16</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="20"/>
+        <v>-0.49908019935561981</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="21"/>
+        <v>0.86655580005626576</v>
+      </c>
+      <c r="M112">
+        <v>120</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="22"/>
+        <v>2.0933333333333333</v>
+      </c>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="17"/>
+        <v>-5</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="19"/>
+        <v>-16</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="20"/>
+        <v>-0.51412008191165215</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="21"/>
+        <v>0.85771821793357994</v>
+      </c>
+      <c r="M113">
+        <v>121</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="22"/>
+        <v>2.1107777777777779</v>
+      </c>
+    </row>
+    <row r="114" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="17"/>
+        <v>-5</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="19"/>
+        <v>-17</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="20"/>
+        <v>-0.52900351725115935</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="21"/>
+        <v>0.84861963136372376</v>
+      </c>
+      <c r="M114">
+        <v>122</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="22"/>
+        <v>2.1282222222222225</v>
+      </c>
+    </row>
+    <row r="115" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="17"/>
+        <v>-5</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="19"/>
+        <v>-17</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="20"/>
+        <v>-0.54372597633099906</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="21"/>
+        <v>0.8392628090550075</v>
+      </c>
+      <c r="M115">
+        <v>123</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="22"/>
+        <v>2.1456666666666666</v>
+      </c>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="E116">
         <f t="shared" si="17"/>
         <v>-6</v>
       </c>
-      <c r="J92">
+      <c r="G116">
         <f t="shared" si="18"/>
-        <v>-0.17277674447235586</v>
-      </c>
-      <c r="K92">
+        <v>26</v>
+      </c>
+      <c r="H116">
         <f t="shared" si="19"/>
-        <v>0.98496101271549541</v>
-      </c>
-      <c r="M92">
-        <v>100</v>
-      </c>
-      <c r="N92">
+        <v>-18</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="20"/>
-        <v>1.7444444444444445</v>
-      </c>
-    </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D93">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="15"/>
-        <v>-2</v>
-      </c>
-      <c r="G93">
+        <v>-0.55828297909325453</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="21"/>
+        <v>0.82965059829711485</v>
+      </c>
+      <c r="M116">
+        <v>124</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="22"/>
+        <v>2.1631111111111112</v>
+      </c>
+    </row>
+    <row r="117" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D117">
         <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="E117">
         <f t="shared" si="17"/>
         <v>-6</v>
       </c>
-      <c r="J93">
+      <c r="G117">
         <f t="shared" si="18"/>
-        <v>-0.18993168264681928</v>
-      </c>
-      <c r="K93">
+        <v>26</v>
+      </c>
+      <c r="H117">
         <f t="shared" si="19"/>
-        <v>0.98179730898335016</v>
-      </c>
-      <c r="M93">
-        <v>101</v>
-      </c>
-      <c r="N93">
+        <v>-18</v>
+      </c>
+      <c r="J117">
         <f t="shared" si="20"/>
-        <v>1.7618888888888888</v>
-      </c>
-    </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D94">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="15"/>
-        <v>-2</v>
-      </c>
-      <c r="G94">
+        <v>-0.57267009582851824</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="21"/>
+        <v>0.81978592409467221</v>
+      </c>
+      <c r="M117">
+        <v>125</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="22"/>
+        <v>2.1805555555555554</v>
+      </c>
+    </row>
+    <row r="118" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D118">
         <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="H94">
+        <v>8</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="17"/>
+        <v>-6</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="18"/>
+        <v>26</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="19"/>
+        <v>-19</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="20"/>
+        <v>-0.58688294852385969</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="21"/>
+        <v>0.80967178827716402</v>
+      </c>
+      <c r="M118">
+        <v>126</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="22"/>
+        <v>2.1980000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="17"/>
+        <v>-6</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="19"/>
+        <v>-19</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="20"/>
+        <v>-0.60091721219505412</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="21"/>
+        <v>0.79931126858547685</v>
+      </c>
+      <c r="M119">
+        <v>127</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="22"/>
+        <v>2.2154444444444445</v>
+      </c>
+    </row>
+    <row r="120" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="17"/>
+        <v>-6</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="19"/>
+        <v>-20</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="20"/>
+        <v>-0.61476861620268475</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="21"/>
+        <v>0.78870751773533643</v>
+      </c>
+      <c r="M120">
+        <v>128</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="22"/>
+        <v>2.2328888888888891</v>
+      </c>
+    </row>
+    <row r="121" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="17"/>
+        <v>-6</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="19"/>
+        <v>-20</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="20"/>
+        <v>-0.62843294555169782</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="21"/>
+        <v>0.77786376245793631</v>
+      </c>
+      <c r="M121">
+        <v>129</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="22"/>
+        <v>2.2503333333333333</v>
+      </c>
+    </row>
+    <row r="122" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="17"/>
+        <v>-6</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="19"/>
+        <v>-21</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="20"/>
+        <v>-0.64190604217403269</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="21"/>
+        <v>0.76678330251803806</v>
+      </c>
+      <c r="M122">
+        <v>130</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="22"/>
+        <v>2.2677777777777779</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="E123">
         <f t="shared" si="17"/>
         <v>-7</v>
       </c>
-      <c r="J94">
+      <c r="G123">
         <f t="shared" si="18"/>
-        <v>-0.20702882443455253</v>
-      </c>
-      <c r="K94">
+        <v>24</v>
+      </c>
+      <c r="H123">
         <f t="shared" si="19"/>
-        <v>0.97833484342184562</v>
-      </c>
-      <c r="M94">
-        <v>102</v>
-      </c>
-      <c r="N94">
+        <v>-21</v>
+      </c>
+      <c r="J123">
         <f t="shared" si="20"/>
-        <v>1.7793333333333334</v>
-      </c>
-    </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D95">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="15"/>
-        <v>-2</v>
-      </c>
-      <c r="G95">
+        <v>-0.65518380619392302</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="21"/>
+        <v>0.75546950970985183</v>
+      </c>
+      <c r="M123">
+        <v>131</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="22"/>
+        <v>2.2852222222222225</v>
+      </c>
+    </row>
+    <row r="124" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D124">
         <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="H95">
+        <v>7</v>
+      </c>
+      <c r="E124">
         <f t="shared" si="17"/>
         <v>-7</v>
       </c>
-      <c r="J95">
+      <c r="G124">
         <f t="shared" si="18"/>
-        <v>-0.22406296715949309</v>
-      </c>
-      <c r="K95">
+        <v>23</v>
+      </c>
+      <c r="H124">
         <f t="shared" si="19"/>
-        <v>0.97457466966245532</v>
-      </c>
-      <c r="M95">
-        <v>103</v>
-      </c>
-      <c r="N95">
+        <v>-21</v>
+      </c>
+      <c r="J124">
         <f t="shared" si="20"/>
-        <v>1.7967777777777778</v>
-      </c>
-    </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D96">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="15"/>
-        <v>-2</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="17"/>
-        <v>-8</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="18"/>
-        <v>-0.24102892731625206</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="19"/>
-        <v>0.97051793192953262</v>
-      </c>
-      <c r="M96">
-        <v>104</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="20"/>
-        <v>1.8142222222222222</v>
-      </c>
-    </row>
-    <row r="97" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D97">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="15"/>
-        <v>-3</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="17"/>
-        <v>-8</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="18"/>
-        <v>-0.25792154214745899</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="19"/>
-        <v>0.9661658646921224</v>
-      </c>
-      <c r="M97">
-        <v>105</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="20"/>
-        <v>1.8316666666666666</v>
-      </c>
-    </row>
-    <row r="98" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D98">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="15"/>
-        <v>-3</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="17"/>
-        <v>-9</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="18"/>
-        <v>-0.27473567121479425</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="19"/>
-        <v>0.96151979228831086</v>
-      </c>
-      <c r="M98">
-        <v>106</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="20"/>
-        <v>1.8491111111111114</v>
-      </c>
-    </row>
-    <row r="99" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D99">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="15"/>
-        <v>-3</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="17"/>
-        <v>-9</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="18"/>
-        <v>-0.29146619796322748</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="19"/>
-        <v>0.95658112852222876</v>
-      </c>
-      <c r="M99">
-        <v>107</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="20"/>
-        <v>1.8665555555555557</v>
-      </c>
-    </row>
-    <row r="100" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D100">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="15"/>
-        <v>-3</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="17"/>
-        <v>-10</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="18"/>
-        <v>-0.30810803127799258</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="19"/>
-        <v>0.95135137623382848</v>
-      </c>
-      <c r="M100">
-        <v>108</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="20"/>
-        <v>1.8840000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D101">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="15"/>
-        <v>-3</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="17"/>
-        <v>-10</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="18"/>
-        <v>-0.32465610703381687</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="19"/>
-        <v>0.94583212684156948</v>
-      </c>
-      <c r="M101">
-        <v>109</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="20"/>
-        <v>1.9014444444444445</v>
-      </c>
-    </row>
-    <row r="102" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D102">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="15"/>
-        <v>-3</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="17"/>
-        <v>-11</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="18"/>
-        <v>-0.34110538963593995</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="19"/>
-        <v>0.94002505985814744</v>
-      </c>
-      <c r="M102">
-        <v>110</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="20"/>
-        <v>1.9188888888888891</v>
-      </c>
-    </row>
-    <row r="103" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D103">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="15"/>
-        <v>-4</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="17"/>
-        <v>-11</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="18"/>
-        <v>-0.3574508735524487</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="19"/>
-        <v>0.93393194237941735</v>
-      </c>
-      <c r="M103">
-        <v>111</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="20"/>
-        <v>1.9363333333333335</v>
-      </c>
-    </row>
-    <row r="104" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D104">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="15"/>
-        <v>-4</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="16"/>
-        <v>29</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="17"/>
-        <v>-12</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="18"/>
-        <v>-0.37368758483746678</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="19"/>
-        <v>0.92755462854666471</v>
-      </c>
-      <c r="M104">
-        <v>112</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="20"/>
-        <v>1.9537777777777778</v>
-      </c>
-    </row>
-    <row r="105" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D105">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="15"/>
-        <v>-4</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="16"/>
-        <v>29</v>
-      </c>
-      <c r="H105">
-        <f t="shared" si="17"/>
-        <v>-12</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="18"/>
-        <v>-0.38981058264473001</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="19"/>
-        <v>0.9208950589823881</v>
-      </c>
-      <c r="M105">
-        <v>113</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="20"/>
-        <v>1.9712222222222222</v>
-      </c>
-    </row>
-    <row r="106" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D106">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="15"/>
-        <v>-4</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="16"/>
-        <v>29</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="17"/>
-        <v>-13</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="18"/>
-        <v>-0.4058149607310908</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="19"/>
-        <v>0.91395526019976669</v>
-      </c>
-      <c r="M106">
-        <v>114</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="20"/>
-        <v>1.9886666666666668</v>
-      </c>
-    </row>
-    <row r="107" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D107">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="15"/>
-        <v>-4</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="16"/>
-        <v>29</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="17"/>
-        <v>-13</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="18"/>
-        <v>-0.42169584894949186</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="19"/>
-        <v>0.90673734398598993</v>
-      </c>
-      <c r="M107">
-        <v>115</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="20"/>
-        <v>2.0061111111111112</v>
-      </c>
-    </row>
-    <row r="108" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D108">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="15"/>
-        <v>-4</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="16"/>
-        <v>29</v>
-      </c>
-      <c r="H108">
-        <f t="shared" si="17"/>
-        <v>-14</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="18"/>
-        <v>-0.43744841473095775</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="19"/>
-        <v>0.89924350675963849</v>
-      </c>
-      <c r="M108">
-        <v>116</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="20"/>
-        <v>2.0235555555555558</v>
-      </c>
-    </row>
-    <row r="109" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D109">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="15"/>
-        <v>-5</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="17"/>
-        <v>-14</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="18"/>
-        <v>-0.45306786455514825</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="19"/>
-        <v>0.89147602890231314</v>
-      </c>
-      <c r="M109">
-        <v>117</v>
-      </c>
-      <c r="N109">
-        <f t="shared" si="20"/>
-        <v>2.0409999999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D110">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="15"/>
-        <v>-5</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="H110">
-        <f t="shared" si="17"/>
-        <v>-15</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="18"/>
-        <v>-0.46854944540903348</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="19"/>
-        <v>0.88343727406471095</v>
-      </c>
-      <c r="M110">
-        <v>118</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="20"/>
-        <v>2.0584444444444445</v>
-      </c>
-    </row>
-    <row r="111" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D111">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="15"/>
-        <v>-5</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="H111">
-        <f t="shared" si="17"/>
-        <v>-15</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="18"/>
-        <v>-0.48388844623323768</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="19"/>
-        <v>0.87512968844736549</v>
-      </c>
-      <c r="M111">
-        <v>119</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="20"/>
-        <v>2.0758888888888891</v>
-      </c>
-    </row>
-    <row r="112" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D112">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="15"/>
-        <v>-5</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="17"/>
-        <v>-16</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="18"/>
-        <v>-0.49908019935561981</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="19"/>
-        <v>0.86655580005626576</v>
-      </c>
-      <c r="M112">
-        <v>120</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="20"/>
-        <v>2.0933333333333333</v>
-      </c>
-    </row>
-    <row r="113" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D113">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="15"/>
-        <v>-5</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="H113">
-        <f t="shared" si="17"/>
-        <v>-16</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="18"/>
-        <v>-0.51412008191165215</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="19"/>
-        <v>0.85771821793357994</v>
-      </c>
-      <c r="M113">
-        <v>121</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="20"/>
-        <v>2.1107777777777779</v>
-      </c>
-    </row>
-    <row r="114" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D114">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="15"/>
-        <v>-5</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="H114">
-        <f t="shared" si="17"/>
-        <v>-17</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="18"/>
-        <v>-0.52900351725115935</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="19"/>
-        <v>0.84861963136372376</v>
-      </c>
-      <c r="M114">
-        <v>122</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="20"/>
-        <v>2.1282222222222225</v>
-      </c>
-    </row>
-    <row r="115" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D115">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="15"/>
-        <v>-5</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="H115">
-        <f t="shared" si="17"/>
-        <v>-17</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="18"/>
-        <v>-0.54372597633099906</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="19"/>
-        <v>0.8392628090550075</v>
-      </c>
-      <c r="M115">
-        <v>123</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="20"/>
-        <v>2.1456666666666666</v>
-      </c>
-    </row>
-    <row r="116" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D116">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="15"/>
-        <v>-6</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="16"/>
-        <v>26</v>
-      </c>
-      <c r="H116">
-        <f t="shared" si="17"/>
-        <v>-18</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="18"/>
-        <v>-0.55828297909325453</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="19"/>
-        <v>0.82965059829711485</v>
-      </c>
-      <c r="M116">
-        <v>124</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="20"/>
-        <v>2.1631111111111112</v>
-      </c>
-    </row>
-    <row r="117" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D117">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="15"/>
-        <v>-6</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="16"/>
-        <v>26</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="17"/>
-        <v>-18</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="18"/>
-        <v>-0.57267009582851824</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="19"/>
-        <v>0.81978592409467221</v>
-      </c>
-      <c r="M117">
-        <v>125</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="20"/>
-        <v>2.1805555555555554</v>
-      </c>
-    </row>
-    <row r="118" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D118">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="15"/>
-        <v>-6</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="16"/>
-        <v>26</v>
-      </c>
-      <c r="H118">
-        <f t="shared" si="17"/>
-        <v>-19</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="18"/>
-        <v>-0.58688294852385969</v>
-      </c>
-      <c r="K118">
-        <f t="shared" si="19"/>
-        <v>0.80967178827716402</v>
-      </c>
-      <c r="M118">
-        <v>126</v>
-      </c>
-      <c r="N118">
-        <f t="shared" si="20"/>
-        <v>2.1980000000000004</v>
-      </c>
-    </row>
-    <row r="119" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D119">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="15"/>
-        <v>-6</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="17"/>
-        <v>-19</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="18"/>
-        <v>-0.60091721219505412</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="19"/>
-        <v>0.79931126858547685</v>
-      </c>
-      <c r="M119">
-        <v>127</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="20"/>
-        <v>2.2154444444444445</v>
-      </c>
-    </row>
-    <row r="120" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D120">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="15"/>
-        <v>-6</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="H120">
-        <f t="shared" si="17"/>
-        <v>-20</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="18"/>
-        <v>-0.61476861620268475</v>
-      </c>
-      <c r="K120">
-        <f t="shared" si="19"/>
-        <v>0.78870751773533643</v>
-      </c>
-      <c r="M120">
-        <v>128</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="20"/>
-        <v>2.2328888888888891</v>
-      </c>
-    </row>
-    <row r="121" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D121">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="15"/>
-        <v>-6</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="H121">
-        <f t="shared" si="17"/>
-        <v>-20</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="18"/>
-        <v>-0.62843294555169782</v>
-      </c>
-      <c r="K121">
-        <f t="shared" si="19"/>
-        <v>0.77786376245793631</v>
-      </c>
-      <c r="M121">
-        <v>129</v>
-      </c>
-      <c r="N121">
-        <f t="shared" si="20"/>
-        <v>2.2503333333333333</v>
-      </c>
-    </row>
-    <row r="122" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D122">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="15"/>
-        <v>-6</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="16"/>
-        <v>24</v>
-      </c>
-      <c r="H122">
-        <f t="shared" si="17"/>
-        <v>-21</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="18"/>
-        <v>-0.64190604217403269</v>
-      </c>
-      <c r="K122">
-        <f t="shared" si="19"/>
-        <v>0.76678330251803806</v>
-      </c>
-      <c r="M122">
-        <v>130</v>
-      </c>
-      <c r="N122">
-        <f t="shared" si="20"/>
-        <v>2.2677777777777779</v>
-      </c>
-    </row>
-    <row r="123" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D123">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="15"/>
-        <v>-7</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="16"/>
-        <v>24</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="17"/>
-        <v>-21</v>
-      </c>
-      <c r="J123">
-        <f t="shared" si="18"/>
-        <v>-0.65518380619392302</v>
-      </c>
-      <c r="K123">
-        <f t="shared" si="19"/>
-        <v>0.75546950970985183</v>
-      </c>
-      <c r="M123">
-        <v>131</v>
-      </c>
-      <c r="N123">
-        <f t="shared" si="20"/>
-        <v>2.2852222222222225</v>
-      </c>
-    </row>
-    <row r="124" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D124">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="15"/>
-        <v>-7</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="16"/>
-        <v>23</v>
-      </c>
-      <c r="H124">
-        <f t="shared" si="17"/>
-        <v>-21</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="18"/>
         <v>-0.6682621971754944</v>
       </c>
       <c r="K124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.74392582683099573</v>
       </c>
       <c r="M124">
         <v>132</v>
       </c>
       <c r="N124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.3026666666666666</v>
       </c>
     </row>
     <row r="125" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="G125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="H125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-22</v>
       </c>
       <c r="J125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.68113723535227333</v>
       </c>
       <c r="K125">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.73215576663484783</v>
       </c>
       <c r="M125">
         <v>133</v>
       </c>
       <c r="N125">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.3201111111111112</v>
       </c>
     </row>
     <row r="126" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="G126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="H126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-22</v>
       </c>
       <c r="J126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.69380500283823165</v>
       </c>
       <c r="K126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.72016291076161476</v>
       </c>
       <c r="M126">
         <v>134</v>
       </c>
       <c r="N126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.3375555555555554</v>
       </c>
     </row>
     <row r="127" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="G127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="H127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-23</v>
       </c>
       <c r="J127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.7062616448200052</v>
       </c>
       <c r="K127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.70795090864843213</v>
       </c>
       <c r="M127">
         <v>135</v>
       </c>
       <c r="N127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.355</v>
       </c>
     </row>
     <row r="128" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="G128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="H128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-23</v>
       </c>
       <c r="J128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.71850337072991555</v>
       </c>
       <c r="K128">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.6955234764188406</v>
       </c>
       <c r="M128">
         <v>136</v>
       </c>
       <c r="N128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.3724444444444446</v>
       </c>
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="G129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="H129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-23</v>
       </c>
       <c r="J129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.73052645539944328</v>
       </c>
       <c r="K129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.68288439575196414</v>
       </c>
       <c r="M129">
         <v>137</v>
       </c>
       <c r="N129">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.3898888888888887</v>
       </c>
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="G130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="H130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-24</v>
       </c>
       <c r="J130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.74232724019280194</v>
       </c>
       <c r="K130">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.67003751273174106</v>
       </c>
       <c r="M130">
         <v>138</v>
       </c>
       <c r="N130">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.4073333333333333</v>
       </c>
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D131">
-        <f t="shared" ref="D131:D162" si="21">ROUND(10*K131,0)</f>
+        <f t="shared" ref="D131:D162" si="23">ROUND(10*K131,0)</f>
         <v>7</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E162" si="22">ROUND(10*J131,0)</f>
+        <f t="shared" ref="E131:E162" si="24">ROUND(10*J131,0)</f>
         <v>-8</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G161" si="23">ROUND(32*K132,0)</f>
+        <f t="shared" ref="G131:G161" si="25">ROUND(32*K132,0)</f>
         <v>21</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H162" si="24">ROUND(32*J131,0)</f>
+        <f t="shared" ref="H131:H162" si="26">ROUND(32*J131,0)</f>
         <v>-24</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J162" si="25">COS(N131)</f>
+        <f t="shared" ref="J131:J162" si="27">COS(N131)</f>
         <v>-0.75390213412026197</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K162" si="26">SIN(N131)</f>
+        <f t="shared" ref="K131:K162" si="28">SIN(N131)</f>
         <v>0.65698673667655916</v>
       </c>
       <c r="M131">
         <v>139</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N162" si="27">(M131)*3.14/(180)</f>
+        <f t="shared" ref="N131:N162" si="29">(M131)*3.14/(180)</f>
         <v>2.4247777777777779</v>
       </c>
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
       <c r="G132">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-24</v>
       </c>
       <c r="J132">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.76524761493089355</v>
       </c>
       <c r="K132">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.64373603894964493</v>
       </c>
       <c r="M132">
         <v>140</v>
       </c>
       <c r="N132">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.4422222222222225</v>
       </c>
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
       <c r="G133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-25</v>
       </c>
       <c r="J133">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.77636023018439038</v>
       </c>
       <c r="K133">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.63028945175057494</v>
       </c>
       <c r="M133">
         <v>141</v>
       </c>
       <c r="N133">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.4596666666666667</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
       <c r="G134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="H134">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-25</v>
       </c>
       <c r="J134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.78723659830165138</v>
       </c>
       <c r="K134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.6166510668882722</v>
       </c>
       <c r="M134">
         <v>142</v>
       </c>
       <c r="N134">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.4771111111111113</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E135">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
       <c r="G135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="H135">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-26</v>
       </c>
       <c r="J135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.79787340959379671</v>
       </c>
       <c r="K135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.60282503453586722</v>
       </c>
       <c r="M135">
         <v>143</v>
       </c>
       <c r="N135">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.4945555555555559</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
       <c r="G136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="H136">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-26</v>
       </c>
       <c r="J136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.80826742726931011</v>
       </c>
       <c r="K136">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.58881556196779528</v>
       </c>
       <c r="M136">
         <v>144</v>
       </c>
       <c r="N136">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.512</v>
       </c>
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D137">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E137">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
       <c r="G137">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="H137">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-26</v>
       </c>
       <c r="J137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.81841548841899814</v>
       </c>
       <c r="K137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.5746269122795179</v>
       </c>
       <c r="M137">
         <v>145</v>
       </c>
       <c r="N137">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.5294444444444446</v>
       </c>
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D138">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E138">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
       <c r="G138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="H138">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-27</v>
       </c>
       <c r="J138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.82831450497846471</v>
       </c>
       <c r="K138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.56026340309026168</v>
       </c>
       <c r="M138">
         <v>146</v>
       </c>
       <c r="N138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.5468888888888888</v>
       </c>
     </row>
     <row r="139" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D139">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E139">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
       <c r="G139">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="H139">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-27</v>
       </c>
       <c r="J139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.83796146466781396</v>
       </c>
       <c r="K139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.54572940522915925</v>
       </c>
       <c r="M139">
         <v>147</v>
       </c>
       <c r="N139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.5643333333333334</v>
       </c>
     </row>
     <row r="140" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D140">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E140">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
       <c r="G140">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="H140">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-27</v>
       </c>
       <c r="J140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.84735343190828816</v>
       </c>
       <c r="K140">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.5310293414052053</v>
       </c>
       <c r="M140">
         <v>148</v>
       </c>
       <c r="N140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.5817777777777779</v>
       </c>
     </row>
     <row r="141" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D141">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E141">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G141">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="H141">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-27</v>
       </c>
       <c r="J141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.85648754871556743</v>
       </c>
       <c r="K141">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.51616768486142039</v>
       </c>
       <c r="M141">
         <v>149</v>
       </c>
       <c r="N141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.5992222222222221</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D142">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E142">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="H142">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-28</v>
       </c>
       <c r="J142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.86536103556945787</v>
       </c>
       <c r="K142">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.50114895801363823</v>
       </c>
       <c r="M142">
         <v>150</v>
       </c>
       <c r="N142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.6166666666666667</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D143">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E143">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="H143">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-28</v>
       </c>
       <c r="J143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.87397119225970132</v>
       </c>
       <c r="K143">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.48597773107433251</v>
       </c>
       <c r="M143">
         <v>151</v>
       </c>
       <c r="N143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.6341111111111113</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D144">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E144">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G144">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="H144">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-28</v>
       </c>
       <c r="J144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.88231539870765163</v>
       </c>
       <c r="K144">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.47065862066189523</v>
       </c>
       <c r="M144">
         <v>152</v>
       </c>
       <c r="N144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.6515555555555559</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D145">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E145">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G145">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="H145">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-28</v>
       </c>
       <c r="J145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.89039111576356755</v>
       </c>
       <c r="K145">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.45519628839579662</v>
       </c>
       <c r="M145">
         <v>153</v>
       </c>
       <c r="N145">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.669</v>
       </c>
     </row>
     <row r="146" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D146">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E146">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G146">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="H146">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-29</v>
       </c>
       <c r="J146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.8981958859792788</v>
       </c>
       <c r="K146">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.43959543947804841</v>
       </c>
       <c r="M146">
         <v>154</v>
       </c>
       <c r="N146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.6864444444444446</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E147">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G147">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="H147">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-29</v>
       </c>
       <c r="J147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.9057273343559884</v>
       </c>
       <c r="K147">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.42386082126140845</v>
       </c>
       <c r="M147">
         <v>155</v>
       </c>
       <c r="N147">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.7038888888888892</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D148">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E148">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G148">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="H148">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-29</v>
       </c>
       <c r="J148">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.91298316906698807</v>
       </c>
       <c r="K148">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.40799722180475623</v>
       </c>
       <c r="M148">
         <v>156</v>
       </c>
       <c r="N148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.7213333333333334</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D149">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="H149">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-29</v>
       </c>
       <c r="J149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.91996118215506351</v>
       </c>
       <c r="K149">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.39200946841608064</v>
       </c>
       <c r="M149">
         <v>157</v>
       </c>
       <c r="N149">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.738777777777778</v>
       </c>
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D150">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E150">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="H150">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-30</v>
       </c>
       <c r="J150">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.92665925020437634</v>
       </c>
       <c r="K150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.37590242618352848</v>
       </c>
       <c r="M150">
         <v>158</v>
       </c>
       <c r="N150">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.7562222222222221</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D151">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E151">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="H151">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-30</v>
       </c>
       <c r="J151">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.93307533498662332</v>
       </c>
       <c r="K151">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.3596809964949505</v>
       </c>
       <c r="M151">
         <v>159</v>
       </c>
       <c r="N151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.7736666666666667</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D152">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="E152">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G152">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="H152">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-30</v>
       </c>
       <c r="J152">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.93920748408126975</v>
       </c>
       <c r="K152">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.34335011554640749</v>
       </c>
       <c r="M152">
         <v>160</v>
       </c>
       <c r="N152">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.7911111111111113</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D153">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="E153">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="G153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="H153">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-30</v>
       </c>
       <c r="J153">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.94505383146967326</v>
       </c>
       <c r="K153">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.32691475284007965</v>
       </c>
       <c r="M153">
         <v>161</v>
       </c>
       <c r="N153">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.8085555555555555</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D154">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="E154">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="G154">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="H154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-30</v>
       </c>
       <c r="J154">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.95061259810291554</v>
       </c>
       <c r="K154">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.31037990967204165</v>
       </c>
       <c r="M154">
         <v>162</v>
       </c>
       <c r="N154">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.8260000000000001</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D155">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="E155">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="G155">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="H155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-31</v>
       </c>
       <c r="J155">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.95588209244316757</v>
       </c>
       <c r="K155">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.29375061761036636</v>
       </c>
       <c r="M155">
         <v>163</v>
       </c>
       <c r="N155">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.8434444444444442</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D156">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="E156">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="G156">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="H156">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-31</v>
       </c>
       <c r="J156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.96086071097842729</v>
       </c>
       <c r="K156">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.27703193696401018</v>
       </c>
       <c r="M156">
         <v>164</v>
       </c>
       <c r="N156">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.8608888888888893</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D157">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="E157">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="G157">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="H157">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-31</v>
       </c>
       <c r="J157">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.96554693871046826</v>
       </c>
       <c r="K157">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.26022895524296158</v>
       </c>
       <c r="M157">
         <v>165</v>
       </c>
       <c r="N157">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.8783333333333334</v>
       </c>
     </row>
     <row r="158" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D158">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E158">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="G158">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="H158">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-31</v>
       </c>
       <c r="J158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.96993934961585693</v>
       </c>
       <c r="K158">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.24334678561010092</v>
       </c>
       <c r="M158">
         <v>166</v>
       </c>
       <c r="N158">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.895777777777778</v>
       </c>
     </row>
     <row r="159" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D159">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E159">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="G159">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="H159">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-31</v>
       </c>
       <c r="J159">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.97403660707989137</v>
       </c>
       <c r="K159">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.22639056532526566</v>
       </c>
       <c r="M159">
         <v>167</v>
       </c>
       <c r="N159">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.9132222222222222</v>
       </c>
     </row>
     <row r="160" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D160">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E160">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="G160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="H160">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-31</v>
       </c>
       <c r="J160">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.97783746430333507</v>
       </c>
       <c r="K160">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.20936545418197336</v>
       </c>
       <c r="M160">
         <v>168</v>
       </c>
       <c r="N160">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.9306666666666668</v>
       </c>
     </row>
     <row r="161" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D161">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E161">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="G161">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="H161">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-31</v>
       </c>
       <c r="J161">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.98134076468181863</v>
       </c>
       <c r="K161">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.19227663293729527</v>
       </c>
       <c r="M161">
         <v>169</v>
       </c>
       <c r="N161">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.9481111111111109</v>
       </c>
     </row>
     <row r="162" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D162">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="G162">
         <v>6</v>
       </c>
       <c r="H162">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-32</v>
       </c>
       <c r="J162">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.98454544215779649</v>
       </c>
       <c r="K162">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.1751293017353433</v>
       </c>
       <c r="M162">
         <v>170</v>
       </c>
       <c r="N162">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.9655555555555559</v>
       </c>
     </row>

--- a/SpeedsLocationsXY.xlsx
+++ b/SpeedsLocationsXY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron\Desktop\Studies\Semester 6\EE_Lab1\EE_LAB1_PROJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3751A538-53EE-4558-A965-F3CC38EE14BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2846D35F-D06D-4E42-9A71-F0A9E4B59B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{708F06E8-502F-46D8-8E6D-FA5AB6E3F58A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Angles</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>OFFSET32</t>
+  </si>
+  <si>
+    <t>SLOPE_OFFSET</t>
   </si>
 </sst>
 </file>
@@ -440,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C411A35-7737-4A2E-A6EB-E0064DD80CD6}">
-  <dimension ref="D1:AC162"/>
+  <dimension ref="D1:AE162"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K27" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>7</v>
       </c>
@@ -503,8 +506,11 @@
       <c r="AC1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D2">
         <f>ROUND(10*K2,0)</f>
         <v>2</v>
@@ -575,8 +581,12 @@
         <f>((64*32)-(AB2*288))</f>
         <v>320</v>
       </c>
-    </row>
-    <row r="3" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE2">
+        <f>ROUND(32*(Y2)/(Z2 + 16),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D3">
         <f t="shared" ref="D3:D66" si="0">ROUND(10*K3,0)</f>
         <v>2</v>
@@ -647,8 +657,12 @@
         <f t="shared" ref="AC3:AC52" si="14">((64*32)-(AB3*288))</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE52" si="15">ROUND(32*(Y3)/(Z3 + 16),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -662,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H66" si="15">ROUND(32*J4,0)</f>
+        <f t="shared" ref="H4:H66" si="16">ROUND(32*J4,0)</f>
         <v>31</v>
       </c>
       <c r="J4">
@@ -719,8 +733,12 @@
         <f t="shared" si="14"/>
         <v>-544</v>
       </c>
-    </row>
-    <row r="5" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE4">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -734,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="J5">
@@ -791,8 +809,12 @@
         <f t="shared" si="14"/>
         <v>-1408</v>
       </c>
-    </row>
-    <row r="6" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE5">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -806,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="J6">
@@ -863,8 +885,12 @@
         <f t="shared" si="14"/>
         <v>-1696</v>
       </c>
-    </row>
-    <row r="7" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE6">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -878,7 +904,7 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="J7">
@@ -935,8 +961,12 @@
         <f t="shared" si="14"/>
         <v>-2272</v>
       </c>
-    </row>
-    <row r="8" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE7">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -950,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="J8">
@@ -1007,8 +1037,12 @@
         <f t="shared" si="14"/>
         <v>-3136</v>
       </c>
-    </row>
-    <row r="9" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE8">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1022,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="J9">
@@ -1079,8 +1113,12 @@
         <f t="shared" si="14"/>
         <v>-3712</v>
       </c>
-    </row>
-    <row r="10" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE9">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1094,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="J10">
@@ -1151,8 +1189,12 @@
         <f t="shared" si="14"/>
         <v>-4576</v>
       </c>
-    </row>
-    <row r="11" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE10">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1166,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="H11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="J11">
@@ -1223,8 +1265,12 @@
         <f t="shared" si="14"/>
         <v>-5440</v>
       </c>
-    </row>
-    <row r="12" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE11">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1238,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="H12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="J12">
@@ -1295,8 +1341,12 @@
         <f t="shared" si="14"/>
         <v>-6016</v>
       </c>
-    </row>
-    <row r="13" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE12">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1310,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="H13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="J13">
@@ -1367,8 +1417,12 @@
         <f t="shared" si="14"/>
         <v>-7168</v>
       </c>
-    </row>
-    <row r="14" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE13">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1382,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="J14">
@@ -1439,8 +1493,12 @@
         <f t="shared" si="14"/>
         <v>-8608</v>
       </c>
-    </row>
-    <row r="15" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE14">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1454,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="J15">
@@ -1511,8 +1569,12 @@
         <f t="shared" si="14"/>
         <v>-9472</v>
       </c>
-    </row>
-    <row r="16" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE15">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1526,7 +1588,7 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="J16">
@@ -1583,8 +1645,12 @@
         <f t="shared" si="14"/>
         <v>-11200</v>
       </c>
-    </row>
-    <row r="17" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE16">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1598,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="H17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="J17">
@@ -1655,8 +1721,12 @@
         <f t="shared" si="14"/>
         <v>-12640</v>
       </c>
-    </row>
-    <row r="18" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE17">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1670,7 +1740,7 @@
         <v>15</v>
       </c>
       <c r="H18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="J18">
@@ -1727,8 +1797,12 @@
         <f t="shared" si="14"/>
         <v>-15232</v>
       </c>
-    </row>
-    <row r="19" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE18">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1742,7 +1816,7 @@
         <v>15</v>
       </c>
       <c r="H19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="J19">
@@ -1799,8 +1873,12 @@
         <f t="shared" si="14"/>
         <v>-16960</v>
       </c>
-    </row>
-    <row r="20" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE19">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1814,7 +1892,7 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="J20">
@@ -1871,8 +1949,12 @@
         <f t="shared" si="14"/>
         <v>-20992</v>
       </c>
-    </row>
-    <row r="21" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE20">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1886,7 +1968,7 @@
         <v>16</v>
       </c>
       <c r="H21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="J21">
@@ -1943,8 +2025,12 @@
         <f t="shared" si="14"/>
         <v>-23008</v>
       </c>
-    </row>
-    <row r="22" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE21">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1958,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="H22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="J22">
@@ -2015,8 +2101,12 @@
         <f t="shared" si="14"/>
         <v>-29632</v>
       </c>
-    </row>
-    <row r="23" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE22">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2030,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="H23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="J23">
@@ -2087,8 +2177,12 @@
         <f t="shared" si="14"/>
         <v>-38848</v>
       </c>
-    </row>
-    <row r="24" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE23">
+        <f t="shared" si="15"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2102,7 +2196,7 @@
         <v>17</v>
       </c>
       <c r="H24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="J24">
@@ -2159,8 +2253,12 @@
         <f t="shared" si="14"/>
         <v>-56992</v>
       </c>
-    </row>
-    <row r="25" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE24">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2174,7 +2272,7 @@
         <v>18</v>
       </c>
       <c r="H25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="J25">
@@ -2231,8 +2329,12 @@
         <f t="shared" si="14"/>
         <v>-71680</v>
       </c>
-    </row>
-    <row r="26" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE25">
+        <f t="shared" si="15"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2246,7 +2348,7 @@
         <v>18</v>
       </c>
       <c r="H26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="J26">
@@ -2303,8 +2405,12 @@
         <f t="shared" si="14"/>
         <v>-145408</v>
       </c>
-    </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE26">
+        <f t="shared" si="15"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2318,7 +2424,7 @@
         <v>19</v>
       </c>
       <c r="H27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="J27">
@@ -2373,8 +2479,12 @@
       <c r="AC27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE27">
+        <f t="shared" si="15"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2388,7 +2498,7 @@
         <v>19</v>
       </c>
       <c r="H28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="J28">
@@ -2445,8 +2555,12 @@
         <f>((64*32)-(AB28*288))</f>
         <v>149504</v>
       </c>
-    </row>
-    <row r="29" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE28">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2460,7 +2574,7 @@
         <v>20</v>
       </c>
       <c r="H29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="J29">
@@ -2517,8 +2631,12 @@
         <f t="shared" si="14"/>
         <v>75776</v>
       </c>
-    </row>
-    <row r="30" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE29">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2532,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="H30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="J30">
@@ -2589,8 +2707,12 @@
         <f t="shared" si="14"/>
         <v>61088</v>
       </c>
-    </row>
-    <row r="31" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE30">
+        <f t="shared" si="15"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2604,7 +2726,7 @@
         <v>21</v>
       </c>
       <c r="H31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="J31">
@@ -2661,8 +2783,12 @@
         <f t="shared" si="14"/>
         <v>42944</v>
       </c>
-    </row>
-    <row r="32" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE31">
+        <f t="shared" si="15"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2676,7 +2802,7 @@
         <v>21</v>
       </c>
       <c r="H32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="J32">
@@ -2733,8 +2859,12 @@
         <f t="shared" si="14"/>
         <v>33728</v>
       </c>
-    </row>
-    <row r="33" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE32">
+        <f t="shared" si="15"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D33">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2748,7 +2878,7 @@
         <v>21</v>
       </c>
       <c r="H33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="J33">
@@ -2805,8 +2935,12 @@
         <f t="shared" si="14"/>
         <v>29696</v>
       </c>
-    </row>
-    <row r="34" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE33">
+        <f t="shared" si="15"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2820,7 +2954,7 @@
         <v>22</v>
       </c>
       <c r="H34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="J34">
@@ -2877,8 +3011,12 @@
         <f t="shared" si="14"/>
         <v>25088</v>
       </c>
-    </row>
-    <row r="35" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE34">
+        <f t="shared" si="15"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D35">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2892,7 +3030,7 @@
         <v>22</v>
       </c>
       <c r="H35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="J35">
@@ -2949,8 +3087,12 @@
         <f t="shared" si="14"/>
         <v>21056</v>
       </c>
-    </row>
-    <row r="36" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE35">
+        <f t="shared" si="15"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D36">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2964,7 +3106,7 @@
         <v>23</v>
       </c>
       <c r="H36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="J36">
@@ -3021,8 +3163,12 @@
         <f t="shared" si="14"/>
         <v>19328</v>
       </c>
-    </row>
-    <row r="37" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE36">
+        <f t="shared" si="15"/>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="37" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D37">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3036,7 +3182,7 @@
         <v>23</v>
       </c>
       <c r="H37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="J37">
@@ -3093,8 +3239,12 @@
         <f t="shared" si="14"/>
         <v>16736</v>
       </c>
-    </row>
-    <row r="38" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE37">
+        <f t="shared" si="15"/>
+        <v>-864</v>
+      </c>
+    </row>
+    <row r="38" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D38">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3108,7 +3258,7 @@
         <v>23</v>
       </c>
       <c r="H38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="J38">
@@ -3165,8 +3315,12 @@
         <f t="shared" si="14"/>
         <v>15296</v>
       </c>
-    </row>
-    <row r="39" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE38">
+        <f t="shared" si="15"/>
+        <v>-416</v>
+      </c>
+    </row>
+    <row r="39" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D39">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3180,7 +3334,7 @@
         <v>24</v>
       </c>
       <c r="H39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="J39">
@@ -3237,8 +3391,12 @@
         <f t="shared" si="14"/>
         <v>13568</v>
       </c>
-    </row>
-    <row r="40" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE39">
+        <f t="shared" si="15"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="40" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D40">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3252,7 +3410,7 @@
         <v>24</v>
       </c>
       <c r="H40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="J40">
@@ -3309,8 +3467,12 @@
         <f t="shared" si="14"/>
         <v>12704</v>
       </c>
-    </row>
-    <row r="41" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE40">
+        <f t="shared" si="15"/>
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="41" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3324,7 +3486,7 @@
         <v>25</v>
       </c>
       <c r="H41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="J41">
@@ -3381,8 +3543,12 @@
         <f t="shared" si="14"/>
         <v>11264</v>
       </c>
-    </row>
-    <row r="42" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE41">
+        <f t="shared" si="15"/>
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="42" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D42">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3396,7 +3562,7 @@
         <v>25</v>
       </c>
       <c r="H42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="J42">
@@ -3453,8 +3619,12 @@
         <f t="shared" si="14"/>
         <v>10112</v>
       </c>
-    </row>
-    <row r="43" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE42">
+        <f t="shared" si="15"/>
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="43" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D43">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3468,7 +3638,7 @@
         <v>25</v>
       </c>
       <c r="H43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J43">
@@ -3525,8 +3695,12 @@
         <f t="shared" si="14"/>
         <v>9536</v>
       </c>
-    </row>
-    <row r="44" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE43">
+        <f t="shared" si="15"/>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="44" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D44">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3540,7 +3714,7 @@
         <v>26</v>
       </c>
       <c r="H44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J44">
@@ -3597,8 +3771,12 @@
         <f t="shared" si="14"/>
         <v>8672</v>
       </c>
-    </row>
-    <row r="45" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE44">
+        <f t="shared" si="15"/>
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="45" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D45">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3612,7 +3790,7 @@
         <v>26</v>
       </c>
       <c r="H45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="J45">
@@ -3669,8 +3847,12 @@
         <f t="shared" si="14"/>
         <v>7808</v>
       </c>
-    </row>
-    <row r="46" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE45">
+        <f t="shared" si="15"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="46" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D46">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3684,7 +3866,7 @@
         <v>26</v>
       </c>
       <c r="H46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="J46">
@@ -3741,8 +3923,12 @@
         <f t="shared" si="14"/>
         <v>7232</v>
       </c>
-    </row>
-    <row r="47" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE46">
+        <f t="shared" si="15"/>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="47" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D47">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3756,7 +3942,7 @@
         <v>27</v>
       </c>
       <c r="H47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="J47">
@@ -3813,8 +3999,12 @@
         <f t="shared" si="14"/>
         <v>6368</v>
       </c>
-    </row>
-    <row r="48" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE47">
+        <f t="shared" si="15"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="48" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D48">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3828,7 +4018,7 @@
         <v>27</v>
       </c>
       <c r="H48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="J48">
@@ -3885,8 +4075,12 @@
         <f t="shared" si="14"/>
         <v>5792</v>
       </c>
-    </row>
-    <row r="49" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE48">
+        <f t="shared" si="15"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="49" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D49">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3900,7 +4094,7 @@
         <v>27</v>
       </c>
       <c r="H49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="J49">
@@ -3957,8 +4151,12 @@
         <f t="shared" si="14"/>
         <v>5504</v>
       </c>
-    </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE49">
+        <f t="shared" si="15"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="50" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D50">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3972,7 +4170,7 @@
         <v>27</v>
       </c>
       <c r="H50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="J50">
@@ -4029,8 +4227,12 @@
         <f t="shared" si="14"/>
         <v>4640</v>
       </c>
-    </row>
-    <row r="51" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE50">
+        <f t="shared" si="15"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="51" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D51">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4044,7 +4246,7 @@
         <v>28</v>
       </c>
       <c r="H51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="J51">
@@ -4101,8 +4303,12 @@
         <f t="shared" si="14"/>
         <v>4064</v>
       </c>
-    </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE51">
+        <f t="shared" si="15"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="52" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D52">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4116,7 +4322,7 @@
         <v>28</v>
       </c>
       <c r="H52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="J52">
@@ -4173,8 +4379,12 @@
         <f t="shared" si="14"/>
         <v>3776</v>
       </c>
-    </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AE52">
+        <f t="shared" si="15"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="53" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D53">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4188,7 +4398,7 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="J53">
@@ -4207,7 +4417,7 @@
         <v>1.0641111111111112</v>
       </c>
     </row>
-    <row r="54" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D54">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4221,7 +4431,7 @@
         <v>29</v>
       </c>
       <c r="H54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="J54">
@@ -4240,7 +4450,7 @@
         <v>1.0815555555555556</v>
       </c>
     </row>
-    <row r="55" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D55">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4254,7 +4464,7 @@
         <v>29</v>
       </c>
       <c r="H55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="J55">
@@ -4273,7 +4483,7 @@
         <v>1.0990000000000002</v>
       </c>
     </row>
-    <row r="56" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D56">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4287,7 +4497,7 @@
         <v>29</v>
       </c>
       <c r="H56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="J56">
@@ -4306,7 +4516,7 @@
         <v>1.1164444444444446</v>
       </c>
     </row>
-    <row r="57" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D57">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4320,7 +4530,7 @@
         <v>29</v>
       </c>
       <c r="H57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="J57">
@@ -4339,7 +4549,7 @@
         <v>1.1338888888888889</v>
       </c>
     </row>
-    <row r="58" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D58">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4353,7 +4563,7 @@
         <v>29</v>
       </c>
       <c r="H58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="J58">
@@ -4372,7 +4582,7 @@
         <v>1.1513333333333333</v>
       </c>
     </row>
-    <row r="59" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D59">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4386,7 +4596,7 @@
         <v>30</v>
       </c>
       <c r="H59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="J59">
@@ -4405,7 +4615,7 @@
         <v>1.1687777777777777</v>
       </c>
     </row>
-    <row r="60" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D60">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4419,7 +4629,7 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="J60">
@@ -4438,7 +4648,7 @@
         <v>1.1862222222222223</v>
       </c>
     </row>
-    <row r="61" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D61">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4452,7 +4662,7 @@
         <v>30</v>
       </c>
       <c r="H61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="J61">
@@ -4471,7 +4681,7 @@
         <v>1.2036666666666667</v>
       </c>
     </row>
-    <row r="62" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D62">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4485,7 +4695,7 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="J62">
@@ -4504,7 +4714,7 @@
         <v>1.2211111111111113</v>
       </c>
     </row>
-    <row r="63" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4518,7 +4728,7 @@
         <v>30</v>
       </c>
       <c r="H63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="J63">
@@ -4537,7 +4747,7 @@
         <v>1.2385555555555556</v>
       </c>
     </row>
-    <row r="64" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D64">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4551,7 +4761,7 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="J64">
@@ -4584,7 +4794,7 @@
         <v>31</v>
       </c>
       <c r="H65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="J65">
@@ -4617,7 +4827,7 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="J66">
@@ -4638,3168 +4848,3168 @@
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="16">ROUND(10*K67,0)</f>
+        <f t="shared" ref="D67:D130" si="17">ROUND(10*K67,0)</f>
         <v>10</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="17">ROUND(10*J67,0)</f>
+        <f t="shared" ref="E67:E130" si="18">ROUND(10*J67,0)</f>
         <v>3</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="18">ROUND(32*K68,0)</f>
+        <f t="shared" ref="G67:G130" si="19">ROUND(32*K68,0)</f>
         <v>31</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="19">ROUND(32*J67,0)</f>
+        <f t="shared" ref="H67:H130" si="20">ROUND(32*J67,0)</f>
         <v>8</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="20">COS(N67)</f>
+        <f t="shared" ref="J67:J130" si="21">COS(N67)</f>
         <v>0.25945998191488229</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="21">SIN(N67)</f>
+        <f t="shared" ref="K67:K130" si="22">SIN(N67)</f>
         <v>0.965753859834238</v>
       </c>
       <c r="M67">
         <v>75</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="22">(M67)*3.14/(180)</f>
+        <f t="shared" ref="N67:N130" si="23">(M67)*3.14/(180)</f>
         <v>1.3083333333333333</v>
       </c>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="G68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="H68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="J68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.24257431984069169</v>
       </c>
       <c r="K68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.97013282562431924</v>
       </c>
       <c r="M68">
         <v>76</v>
       </c>
       <c r="N68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3257777777777779</v>
       </c>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="G69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="H69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="J69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.22561484217657451</v>
       </c>
       <c r="K69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.97421657909811787</v>
       </c>
       <c r="M69">
         <v>77</v>
       </c>
       <c r="N69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3432222222222223</v>
       </c>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="G70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="H70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="J70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.20858670970727247</v>
       </c>
       <c r="K70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.97800387756567408</v>
       </c>
       <c r="M70">
         <v>78</v>
       </c>
       <c r="N70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3606666666666667</v>
       </c>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="G71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="J71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.19149510410924828</v>
       </c>
       <c r="K71">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.98149356854856062</v>
       </c>
       <c r="M71">
         <v>79</v>
       </c>
       <c r="N71">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3781111111111111</v>
       </c>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="J72">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.17434522637389618</v>
       </c>
       <c r="K72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.98468459013058329</v>
       </c>
       <c r="M72">
         <v>80</v>
       </c>
       <c r="N72">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3955555555555557</v>
       </c>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="J73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.15714229522487641</v>
       </c>
       <c r="K73">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.98757597128092267</v>
       </c>
       <c r="M73">
         <v>81</v>
       </c>
       <c r="N73">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.413</v>
       </c>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="J74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.13989154553005118</v>
       </c>
       <c r="K74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99016683214961998</v>
       </c>
       <c r="M74">
         <v>82</v>
       </c>
       <c r="N74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.4304444444444446</v>
       </c>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="J75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.12259822670851127</v>
       </c>
       <c r="K75">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99245638433531602</v>
       </c>
       <c r="M75">
         <v>83</v>
       </c>
       <c r="N75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.447888888888889</v>
       </c>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="J76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.10526760113317148</v>
       </c>
       <c r="K76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99444393112516283</v>
       </c>
       <c r="M76">
         <v>84</v>
       </c>
       <c r="N76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.4653333333333334</v>
       </c>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="J77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.7904942529426267E-2</v>
       </c>
       <c r="K77">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99612886770683351</v>
       </c>
       <c r="M77">
         <v>85</v>
       </c>
       <c r="N77">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.482777777777778</v>
       </c>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="J78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.0515534370350949E-2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99751068135256771</v>
       </c>
       <c r="M78">
         <v>86</v>
       </c>
       <c r="N78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5002222222222223</v>
       </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="J79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.3104668268934625E-2</v>
       </c>
       <c r="K79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99858895157519467</v>
       </c>
       <c r="M79">
         <v>87</v>
       </c>
       <c r="N79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5176666666666667</v>
       </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.567764236783829E-2</v>
       </c>
       <c r="K80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99936335025608813</v>
       </c>
       <c r="M80">
         <v>88</v>
       </c>
       <c r="N80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5351111111111111</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8239759727164722E-2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.9998336417450131</v>
       </c>
       <c r="M81">
         <v>89</v>
       </c>
       <c r="N81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5525555555555557</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.9632671073326335E-4</v>
       </c>
       <c r="K82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99999968293183461</v>
       </c>
       <c r="M82">
         <v>90</v>
       </c>
       <c r="N82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.57</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.6647348628652931E-2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99986142329006578</v>
       </c>
       <c r="M83">
         <v>91</v>
       </c>
       <c r="N83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5874444444444444</v>
       </c>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="J84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3.408595816445139E-2</v>
       </c>
       <c r="K84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.9994189048922435</v>
       </c>
       <c r="M84">
         <v>92</v>
       </c>
       <c r="N84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.6048888888888888</v>
       </c>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="G85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-2</v>
       </c>
       <c r="J85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-5.1514195311648803E-2</v>
       </c>
       <c r="K85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99867226239712559</v>
       </c>
       <c r="M85">
         <v>93</v>
       </c>
       <c r="N85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.6223333333333336</v>
       </c>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="G86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-2</v>
       </c>
       <c r="J86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-6.8926756641557965E-2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.9976217230087141</v>
       </c>
       <c r="M86">
         <v>94</v>
       </c>
       <c r="N86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.639777777777778</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="G87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
       <c r="J87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-8.6318343495658728E-2</v>
       </c>
       <c r="K87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99626760640711665</v>
       </c>
       <c r="M87">
         <v>95</v>
       </c>
       <c r="N87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.6572222222222224</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="G88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.10368366359798285</v>
       </c>
       <c r="K88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99461032465126775</v>
       </c>
       <c r="M88">
         <v>96</v>
       </c>
       <c r="N88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.6746666666666667</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="G89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-4</v>
       </c>
       <c r="J89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.12101743266555902</v>
       </c>
       <c r="K89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99265038205353895</v>
       </c>
       <c r="M89">
         <v>97</v>
       </c>
       <c r="N89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.6921111111111111</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="G90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-4</v>
       </c>
       <c r="J90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.13831437601642513</v>
       </c>
       <c r="K90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99038837502627575</v>
       </c>
       <c r="M90">
         <v>98</v>
       </c>
       <c r="N90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.7095555555555557</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="G91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="H91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-5</v>
       </c>
       <c r="J91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.15556923017471813</v>
       </c>
       <c r="K91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.98782499190030904</v>
       </c>
       <c r="M91">
         <v>99</v>
       </c>
       <c r="N91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.7270000000000001</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="G92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="H92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-6</v>
       </c>
       <c r="J92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.17277674447235586</v>
       </c>
       <c r="K92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.98496101271549541</v>
       </c>
       <c r="M92">
         <v>100</v>
       </c>
       <c r="N92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.7444444444444445</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="G93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="H93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-6</v>
       </c>
       <c r="J93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.18993168264681928</v>
       </c>
       <c r="K93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.98179730898335016</v>
       </c>
       <c r="M93">
         <v>101</v>
       </c>
       <c r="N93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.7618888888888888</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="G94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="H94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-7</v>
       </c>
       <c r="J94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.20702882443455253</v>
       </c>
       <c r="K94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.97833484342184562</v>
       </c>
       <c r="M94">
         <v>102</v>
       </c>
       <c r="N94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.7793333333333334</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="G95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="H95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-7</v>
       </c>
       <c r="J95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.22406296715949309</v>
       </c>
       <c r="K95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.97457466966245532</v>
       </c>
       <c r="M95">
         <v>103</v>
       </c>
       <c r="N95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.7967777777777778</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="G96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="H96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-8</v>
       </c>
       <c r="J96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.24102892731625206</v>
       </c>
       <c r="K96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.97051793192953262</v>
       </c>
       <c r="M96">
         <v>104</v>
       </c>
       <c r="N96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.8142222222222222</v>
       </c>
     </row>
     <row r="97" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="G97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="H97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-8</v>
       </c>
       <c r="J97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.25792154214745899</v>
       </c>
       <c r="K97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.9661658646921224</v>
       </c>
       <c r="M97">
         <v>105</v>
       </c>
       <c r="N97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.8316666666666666</v>
       </c>
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="G98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="H98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-9</v>
       </c>
       <c r="J98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.27473567121479425</v>
       </c>
       <c r="K98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.96151979228831086</v>
       </c>
       <c r="M98">
         <v>106</v>
       </c>
       <c r="N98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.8491111111111114</v>
       </c>
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="G99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="H99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-9</v>
       </c>
       <c r="J99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.29146619796322748</v>
       </c>
       <c r="K99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.95658112852222876</v>
       </c>
       <c r="M99">
         <v>107</v>
       </c>
       <c r="N99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.8665555555555557</v>
       </c>
     </row>
     <row r="100" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="G100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="H100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-10</v>
       </c>
       <c r="J100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.30810803127799258</v>
       </c>
       <c r="K100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.95135137623382848</v>
       </c>
       <c r="M100">
         <v>108</v>
       </c>
       <c r="N100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.8840000000000001</v>
       </c>
     </row>
     <row r="101" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="G101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="H101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-10</v>
       </c>
       <c r="J101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.32465610703381687</v>
       </c>
       <c r="K101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.94583212684156948</v>
       </c>
       <c r="M101">
         <v>109</v>
       </c>
       <c r="N101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.9014444444444445</v>
       </c>
     </row>
     <row r="102" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="G102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="H102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-11</v>
       </c>
       <c r="J102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.34110538963593995</v>
       </c>
       <c r="K102">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.94002505985814744</v>
       </c>
       <c r="M102">
         <v>110</v>
       </c>
       <c r="N102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.9188888888888891</v>
       </c>
     </row>
     <row r="103" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4</v>
       </c>
       <c r="G103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="H103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-11</v>
       </c>
       <c r="J103">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.3574508735524487</v>
       </c>
       <c r="K103">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.93393194237941735</v>
       </c>
       <c r="M103">
         <v>111</v>
       </c>
       <c r="N103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.9363333333333335</v>
       </c>
     </row>
     <row r="104" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4</v>
       </c>
       <c r="G104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="H104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-12</v>
       </c>
       <c r="J104">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.37368758483746678</v>
       </c>
       <c r="K104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.92755462854666471</v>
       </c>
       <c r="M104">
         <v>112</v>
       </c>
       <c r="N104">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.9537777777777778</v>
       </c>
     </row>
     <row r="105" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4</v>
       </c>
       <c r="G105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="H105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-12</v>
       </c>
       <c r="J105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.38981058264473001</v>
       </c>
       <c r="K105">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.9208950589823881</v>
       </c>
       <c r="M105">
         <v>113</v>
       </c>
       <c r="N105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.9712222222222222</v>
       </c>
     </row>
     <row r="106" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4</v>
       </c>
       <c r="G106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="H106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-13</v>
       </c>
       <c r="J106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.4058149607310908</v>
       </c>
       <c r="K106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.91395526019976669</v>
       </c>
       <c r="M106">
         <v>114</v>
       </c>
       <c r="N106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.9886666666666668</v>
       </c>
     </row>
     <row r="107" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4</v>
       </c>
       <c r="G107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="H107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-13</v>
       </c>
       <c r="J107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.42169584894949186</v>
       </c>
       <c r="K107">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.90673734398598993</v>
       </c>
       <c r="M107">
         <v>115</v>
       </c>
       <c r="N107">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.0061111111111112</v>
       </c>
     </row>
     <row r="108" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4</v>
       </c>
       <c r="G108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="H108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-14</v>
       </c>
       <c r="J108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.43744841473095775</v>
       </c>
       <c r="K108">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.89924350675963849</v>
       </c>
       <c r="M108">
         <v>116</v>
       </c>
       <c r="N108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.0235555555555558</v>
       </c>
     </row>
     <row r="109" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="G109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="H109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-14</v>
       </c>
       <c r="J109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.45306786455514825</v>
       </c>
       <c r="K109">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.89147602890231314</v>
       </c>
       <c r="M109">
         <v>117</v>
       </c>
       <c r="N109">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.0409999999999999</v>
       </c>
     </row>
     <row r="110" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="G110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="H110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-15</v>
       </c>
       <c r="J110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.46854944540903348</v>
       </c>
       <c r="K110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.88343727406471095</v>
       </c>
       <c r="M110">
         <v>118</v>
       </c>
       <c r="N110">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.0584444444444445</v>
       </c>
     </row>
     <row r="111" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="G111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="H111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-15</v>
       </c>
       <c r="J111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.48388844623323768</v>
       </c>
       <c r="K111">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.87512968844736549</v>
       </c>
       <c r="M111">
         <v>119</v>
       </c>
       <c r="N111">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.0758888888888891</v>
       </c>
     </row>
     <row r="112" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="G112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="H112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-16</v>
       </c>
       <c r="J112">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.49908019935561981</v>
       </c>
       <c r="K112">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.86655580005626576</v>
       </c>
       <c r="M112">
         <v>120</v>
       </c>
       <c r="N112">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.0933333333333333</v>
       </c>
     </row>
     <row r="113" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="G113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="H113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-16</v>
       </c>
       <c r="J113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.51412008191165215</v>
       </c>
       <c r="K113">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.85771821793357994</v>
       </c>
       <c r="M113">
         <v>121</v>
       </c>
       <c r="N113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.1107777777777779</v>
       </c>
     </row>
     <row r="114" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="G114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="H114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-17</v>
       </c>
       <c r="J114">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.52900351725115935</v>
       </c>
       <c r="K114">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.84861963136372376</v>
       </c>
       <c r="M114">
         <v>122</v>
       </c>
       <c r="N114">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.1282222222222225</v>
       </c>
     </row>
     <row r="115" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="G115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="H115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-17</v>
       </c>
       <c r="J115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.54372597633099906</v>
       </c>
       <c r="K115">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.8392628090550075</v>
       </c>
       <c r="M115">
         <v>123</v>
       </c>
       <c r="N115">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.1456666666666666</v>
       </c>
     </row>
     <row r="116" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6</v>
       </c>
       <c r="G116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="H116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-18</v>
       </c>
       <c r="J116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.55828297909325453</v>
       </c>
       <c r="K116">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.82965059829711485</v>
       </c>
       <c r="M116">
         <v>124</v>
       </c>
       <c r="N116">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.1631111111111112</v>
       </c>
     </row>
     <row r="117" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6</v>
       </c>
       <c r="G117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="H117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-18</v>
       </c>
       <c r="J117">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.57267009582851824</v>
       </c>
       <c r="K117">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.81978592409467221</v>
       </c>
       <c r="M117">
         <v>125</v>
       </c>
       <c r="N117">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.1805555555555554</v>
       </c>
     </row>
     <row r="118" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6</v>
       </c>
       <c r="G118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="H118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-19</v>
       </c>
       <c r="J118">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.58688294852385969</v>
       </c>
       <c r="K118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.80967178827716402</v>
       </c>
       <c r="M118">
         <v>126</v>
       </c>
       <c r="N118">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.1980000000000004</v>
       </c>
     </row>
     <row r="119" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6</v>
       </c>
       <c r="G119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="H119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-19</v>
       </c>
       <c r="J119">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.60091721219505412</v>
       </c>
       <c r="K119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.79931126858547685</v>
       </c>
       <c r="M119">
         <v>127</v>
       </c>
       <c r="N119">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2154444444444445</v>
       </c>
     </row>
     <row r="120" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6</v>
       </c>
       <c r="G120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="H120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-20</v>
       </c>
       <c r="J120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.61476861620268475</v>
       </c>
       <c r="K120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.78870751773533643</v>
       </c>
       <c r="M120">
         <v>128</v>
       </c>
       <c r="N120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2328888888888891</v>
       </c>
     </row>
     <row r="121" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6</v>
       </c>
       <c r="G121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="H121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-20</v>
       </c>
       <c r="J121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.62843294555169782</v>
       </c>
       <c r="K121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.77786376245793631</v>
       </c>
       <c r="M121">
         <v>129</v>
       </c>
       <c r="N121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2503333333333333</v>
       </c>
     </row>
     <row r="122" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6</v>
       </c>
       <c r="G122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="H122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-21</v>
       </c>
       <c r="J122">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.64190604217403269</v>
       </c>
       <c r="K122">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.76678330251803806</v>
       </c>
       <c r="M122">
         <v>130</v>
       </c>
       <c r="N122">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2677777777777779</v>
       </c>
     </row>
     <row r="123" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="G123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="H123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-21</v>
       </c>
       <c r="J123">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.65518380619392302</v>
       </c>
       <c r="K123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.75546950970985183</v>
       </c>
       <c r="M123">
         <v>131</v>
       </c>
       <c r="N123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2852222222222225</v>
       </c>
     </row>
     <row r="124" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="E124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="G124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="H124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-21</v>
       </c>
       <c r="J124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.6682621971754944</v>
       </c>
       <c r="K124">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.74392582683099573</v>
       </c>
       <c r="M124">
         <v>132</v>
       </c>
       <c r="N124">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.3026666666666666</v>
       </c>
     </row>
     <row r="125" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="E125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="G125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="H125">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-22</v>
       </c>
       <c r="J125">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.68113723535227333</v>
       </c>
       <c r="K125">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.73215576663484783</v>
       </c>
       <c r="M125">
         <v>133</v>
       </c>
       <c r="N125">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.3201111111111112</v>
       </c>
     </row>
     <row r="126" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="E126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="G126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="H126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-22</v>
       </c>
       <c r="J126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.69380500283823165</v>
       </c>
       <c r="K126">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.72016291076161476</v>
       </c>
       <c r="M126">
         <v>134</v>
       </c>
       <c r="N126">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.3375555555555554</v>
       </c>
     </row>
     <row r="127" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="E127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="G127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="H127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-23</v>
       </c>
       <c r="J127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.7062616448200052</v>
       </c>
       <c r="K127">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.70795090864843213</v>
       </c>
       <c r="M127">
         <v>135</v>
       </c>
       <c r="N127">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.355</v>
       </c>
     </row>
     <row r="128" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="E128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="G128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="H128">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-23</v>
       </c>
       <c r="J128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.71850337072991555</v>
       </c>
       <c r="K128">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.6955234764188406</v>
       </c>
       <c r="M128">
         <v>136</v>
       </c>
       <c r="N128">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.3724444444444446</v>
       </c>
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="E129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="G129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="H129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-23</v>
       </c>
       <c r="J129">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.73052645539944328</v>
       </c>
       <c r="K129">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.68288439575196414</v>
       </c>
       <c r="M129">
         <v>137</v>
       </c>
       <c r="N129">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.3898888888888887</v>
       </c>
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="E130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="G130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="H130">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-24</v>
       </c>
       <c r="J130">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.74232724019280194</v>
       </c>
       <c r="K130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.67003751273174106</v>
       </c>
       <c r="M130">
         <v>138</v>
       </c>
       <c r="N130">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.4073333333333333</v>
       </c>
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D131">
-        <f t="shared" ref="D131:D162" si="23">ROUND(10*K131,0)</f>
+        <f t="shared" ref="D131:D162" si="24">ROUND(10*K131,0)</f>
         <v>7</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E162" si="24">ROUND(10*J131,0)</f>
+        <f t="shared" ref="E131:E162" si="25">ROUND(10*J131,0)</f>
         <v>-8</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G161" si="25">ROUND(32*K132,0)</f>
+        <f t="shared" ref="G131:G161" si="26">ROUND(32*K132,0)</f>
         <v>21</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H162" si="26">ROUND(32*J131,0)</f>
+        <f t="shared" ref="H131:H162" si="27">ROUND(32*J131,0)</f>
         <v>-24</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J162" si="27">COS(N131)</f>
+        <f t="shared" ref="J131:J162" si="28">COS(N131)</f>
         <v>-0.75390213412026197</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K162" si="28">SIN(N131)</f>
+        <f t="shared" ref="K131:K162" si="29">SIN(N131)</f>
         <v>0.65698673667655916</v>
       </c>
       <c r="M131">
         <v>139</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N162" si="29">(M131)*3.14/(180)</f>
+        <f t="shared" ref="N131:N162" si="30">(M131)*3.14/(180)</f>
         <v>2.4247777777777779</v>
       </c>
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D132">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="E132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="G132">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="H132">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-24</v>
       </c>
       <c r="J132">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.76524761493089355</v>
       </c>
       <c r="K132">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.64373603894964493</v>
       </c>
       <c r="M132">
         <v>140</v>
       </c>
       <c r="N132">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.4422222222222225</v>
       </c>
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="E133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="G133">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="H133">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-25</v>
       </c>
       <c r="J133">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.77636023018439038</v>
       </c>
       <c r="K133">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.63028945175057494</v>
       </c>
       <c r="M133">
         <v>141</v>
       </c>
       <c r="N133">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.4596666666666667</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="E134">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="G134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="H134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-25</v>
       </c>
       <c r="J134">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.78723659830165138</v>
       </c>
       <c r="K134">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.6166510668882722</v>
       </c>
       <c r="M134">
         <v>142</v>
       </c>
       <c r="N134">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.4771111111111113</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="E135">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="G135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="H135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-26</v>
       </c>
       <c r="J135">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.79787340959379671</v>
       </c>
       <c r="K135">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.60282503453586722</v>
       </c>
       <c r="M135">
         <v>143</v>
       </c>
       <c r="N135">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.4945555555555559</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="E136">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="G136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="H136">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-26</v>
       </c>
       <c r="J136">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.80826742726931011</v>
       </c>
       <c r="K136">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.58881556196779528</v>
       </c>
       <c r="M136">
         <v>144</v>
       </c>
       <c r="N136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.512</v>
       </c>
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D137">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="E137">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="G137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="H137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-26</v>
       </c>
       <c r="J137">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.81841548841899814</v>
       </c>
       <c r="K137">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.5746269122795179</v>
       </c>
       <c r="M137">
         <v>145</v>
       </c>
       <c r="N137">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.5294444444444446</v>
       </c>
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="E138">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="G138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="H138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-27</v>
       </c>
       <c r="J138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.82831450497846471</v>
       </c>
       <c r="K138">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.56026340309026168</v>
       </c>
       <c r="M138">
         <v>146</v>
       </c>
       <c r="N138">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.5468888888888888</v>
       </c>
     </row>
     <row r="139" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D139">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="E139">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="G139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="H139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-27</v>
       </c>
       <c r="J139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.83796146466781396</v>
       </c>
       <c r="K139">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.54572940522915925</v>
       </c>
       <c r="M139">
         <v>147</v>
       </c>
       <c r="N139">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.5643333333333334</v>
       </c>
     </row>
     <row r="140" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D140">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="E140">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="G140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="H140">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-27</v>
       </c>
       <c r="J140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.84735343190828816</v>
       </c>
       <c r="K140">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.5310293414052053</v>
       </c>
       <c r="M140">
         <v>148</v>
       </c>
       <c r="N140">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.5817777777777779</v>
       </c>
     </row>
     <row r="141" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D141">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="E141">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="H141">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-27</v>
       </c>
       <c r="J141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.85648754871556743</v>
       </c>
       <c r="K141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.51616768486142039</v>
       </c>
       <c r="M141">
         <v>149</v>
       </c>
       <c r="N141">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.5992222222222221</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="E142">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="H142">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-28</v>
       </c>
       <c r="J142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.86536103556945787</v>
       </c>
       <c r="K142">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.50114895801363823</v>
       </c>
       <c r="M142">
         <v>150</v>
       </c>
       <c r="N142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.6166666666666667</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="E143">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="H143">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-28</v>
       </c>
       <c r="J143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.87397119225970132</v>
       </c>
       <c r="K143">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.48597773107433251</v>
       </c>
       <c r="M143">
         <v>151</v>
       </c>
       <c r="N143">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.6341111111111113</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D144">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="E144">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="H144">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-28</v>
       </c>
       <c r="J144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.88231539870765163</v>
       </c>
       <c r="K144">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.47065862066189523</v>
       </c>
       <c r="M144">
         <v>152</v>
       </c>
       <c r="N144">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.6515555555555559</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D145">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="E145">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="H145">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-28</v>
       </c>
       <c r="J145">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.89039111576356755</v>
       </c>
       <c r="K145">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.45519628839579662</v>
       </c>
       <c r="M145">
         <v>153</v>
       </c>
       <c r="N145">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.669</v>
       </c>
     </row>
     <row r="146" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D146">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="E146">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="H146">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-29</v>
       </c>
       <c r="J146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.8981958859792788</v>
       </c>
       <c r="K146">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.43959543947804841</v>
       </c>
       <c r="M146">
         <v>154</v>
       </c>
       <c r="N146">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.6864444444444446</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D147">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="E147">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="H147">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-29</v>
       </c>
       <c r="J147">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.9057273343559884</v>
       </c>
       <c r="K147">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.42386082126140845</v>
       </c>
       <c r="M147">
         <v>155</v>
       </c>
       <c r="N147">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.7038888888888892</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D148">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="E148">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G148">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="H148">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-29</v>
       </c>
       <c r="J148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.91298316906698807</v>
       </c>
       <c r="K148">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.40799722180475623</v>
       </c>
       <c r="M148">
         <v>156</v>
       </c>
       <c r="N148">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.7213333333333334</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="E149">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="H149">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-29</v>
       </c>
       <c r="J149">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.91996118215506351</v>
       </c>
       <c r="K149">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.39200946841608064</v>
       </c>
       <c r="M149">
         <v>157</v>
       </c>
       <c r="N149">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.738777777777778</v>
       </c>
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="E150">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G150">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="H150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-30</v>
       </c>
       <c r="J150">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.92665925020437634</v>
       </c>
       <c r="K150">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.37590242618352848</v>
       </c>
       <c r="M150">
         <v>158</v>
       </c>
       <c r="N150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.7562222222222221</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="E151">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G151">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="H151">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-30</v>
       </c>
       <c r="J151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.93307533498662332</v>
       </c>
       <c r="K151">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.3596809964949505</v>
       </c>
       <c r="M151">
         <v>159</v>
       </c>
       <c r="N151">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.7736666666666667</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D152">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="E152">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G152">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="H152">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-30</v>
       </c>
       <c r="J152">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.93920748408126975</v>
       </c>
       <c r="K152">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.34335011554640749</v>
       </c>
       <c r="M152">
         <v>160</v>
       </c>
       <c r="N152">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.7911111111111113</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="E153">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="G153">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="H153">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-30</v>
       </c>
       <c r="J153">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.94505383146967326</v>
       </c>
       <c r="K153">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.32691475284007965</v>
       </c>
       <c r="M153">
         <v>161</v>
       </c>
       <c r="N153">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.8085555555555555</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D154">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="E154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-10</v>
       </c>
       <c r="G154">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="H154">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-30</v>
       </c>
       <c r="J154">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.95061259810291554</v>
       </c>
       <c r="K154">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.31037990967204165</v>
       </c>
       <c r="M154">
         <v>162</v>
       </c>
       <c r="N154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.8260000000000001</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D155">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="E155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-10</v>
       </c>
       <c r="G155">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="H155">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-31</v>
       </c>
       <c r="J155">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.95588209244316757</v>
       </c>
       <c r="K155">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.29375061761036636</v>
       </c>
       <c r="M155">
         <v>163</v>
       </c>
       <c r="N155">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.8434444444444442</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D156">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="E156">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-10</v>
       </c>
       <c r="G156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="H156">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-31</v>
       </c>
       <c r="J156">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.96086071097842729</v>
       </c>
       <c r="K156">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.27703193696401018</v>
       </c>
       <c r="M156">
         <v>164</v>
       </c>
       <c r="N156">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.8608888888888893</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D157">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="E157">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-10</v>
       </c>
       <c r="G157">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="H157">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-31</v>
       </c>
       <c r="J157">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.96554693871046826</v>
       </c>
       <c r="K157">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.26022895524296158</v>
       </c>
       <c r="M157">
         <v>165</v>
       </c>
       <c r="N157">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.8783333333333334</v>
       </c>
     </row>
     <row r="158" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D158">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="E158">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-10</v>
       </c>
       <c r="G158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="H158">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-31</v>
       </c>
       <c r="J158">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.96993934961585693</v>
       </c>
       <c r="K158">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.24334678561010092</v>
       </c>
       <c r="M158">
         <v>166</v>
       </c>
       <c r="N158">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.895777777777778</v>
       </c>
     </row>
     <row r="159" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D159">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="E159">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-10</v>
       </c>
       <c r="G159">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="H159">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-31</v>
       </c>
       <c r="J159">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.97403660707989137</v>
       </c>
       <c r="K159">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.22639056532526566</v>
       </c>
       <c r="M159">
         <v>167</v>
       </c>
       <c r="N159">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.9132222222222222</v>
       </c>
     </row>
     <row r="160" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="E160">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-10</v>
       </c>
       <c r="G160">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="H160">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-31</v>
       </c>
       <c r="J160">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.97783746430333507</v>
       </c>
       <c r="K160">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.20936545418197336</v>
       </c>
       <c r="M160">
         <v>168</v>
       </c>
       <c r="N160">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.9306666666666668</v>
       </c>
     </row>
     <row r="161" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D161">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="E161">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-10</v>
       </c>
       <c r="G161">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="H161">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-31</v>
       </c>
       <c r="J161">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.98134076468181863</v>
       </c>
       <c r="K161">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.19227663293729527</v>
       </c>
       <c r="M161">
         <v>169</v>
       </c>
       <c r="N161">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.9481111111111109</v>
       </c>
     </row>
     <row r="162" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="E162">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-10</v>
       </c>
       <c r="G162">
         <v>6</v>
       </c>
       <c r="H162">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-32</v>
       </c>
       <c r="J162">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.98454544215779649</v>
       </c>
       <c r="K162">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.1751293017353433</v>
       </c>
       <c r="M162">
         <v>170</v>
       </c>
       <c r="N162">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.9655555555555559</v>
       </c>
     </row>
